--- a/TestPlan/MRBS_TestPlan_PhaseDemo_X0X1.xlsx
+++ b/TestPlan/MRBS_TestPlan_PhaseDemo_X0X1.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4235" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4419" uniqueCount="1130">
   <si>
     <t>Not Test</t>
   </si>
@@ -4594,6 +4594,102 @@
   </si>
   <si>
     <t>TC_065</t>
+  </si>
+  <si>
+    <t>Confirm that user can execute book/extend/end/claim… action continuously , make sure that system work normally and no strange behaviour happenned</t>
+  </si>
+  <si>
+    <t>Combine all Function 1</t>
+  </si>
+  <si>
+    <t>-Connect 1 PANL70 to PANL Hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while(1)
+{
+Booking the meeting OL
+Claim the meeting
+Extend the meeting
+End the meeting 
+Book the meeting OL
+Not Claim meeting
+};
+execute continuously 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Ensure that the system does not stuck/reset/crash or any strange behaviour
+-Ensure that each action is so long than previous event (maybe 1-5s)
+-Ensure that data is not lost after system has problem
+</t>
+  </si>
+  <si>
+    <t>Stress-Test:</t>
+  </si>
+  <si>
+    <t>Combine all Function 1 on multi PANL70</t>
+  </si>
+  <si>
+    <t>-Connect mutil PANL70 to PANL Hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while(1)
+{
+Booking the meeting 
+Extend the meeting
+End the meeting 
+};
+execute continuously 
+</t>
+  </si>
+  <si>
+    <t>Confirm that user can execute book action continuously , make sure that system work normally and no strange behaviour happenned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booking the meeting on OL continuously -with duration = 30mins
+</t>
+  </si>
+  <si>
+    <t>Action Book Meeting Continously with multi room</t>
+  </si>
+  <si>
+    <t>Action Book Meeting Continously with 1 room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booking the meeting on PANL70 continuously -with duration = 30mins
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booking the meeting on 2PANL70 continuously -with duration = 30mins 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Ensure that the system does not stuck/reset/crash or any strange behaviour
+-Ensure that each action is so long than first event (maybe 1-5s)
+-Ensure that data is not lost after system has problem
+</t>
+  </si>
+  <si>
+    <t>Action Extend Meeting Continously with 1 room</t>
+  </si>
+  <si>
+    <t>Action Extend Meeting Continously with multi room</t>
+  </si>
+  <si>
+    <t>Confirm that user can execute extend action continuously , make sure that system work normally and no strange behaviour happenned</t>
+  </si>
+  <si>
+    <t>Long Run</t>
+  </si>
+  <si>
+    <t>Long Run with 1 Week</t>
+  </si>
+  <si>
+    <t>Confirm that system can work normally after long run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booking the meeting by OL during 1 week with duration = 30mins
+</t>
   </si>
 </sst>
 </file>
@@ -4670,7 +4766,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4776,6 +4872,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4963,7 +5065,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="400">
+  <cellXfs count="412">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6128,13 +6230,49 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 4" xfId="1"/>
   </cellStyles>
-  <dxfs count="1199">
+  <dxfs count="1499">
     <dxf>
       <font>
         <b/>
@@ -6599,6 +6737,72 @@
       <font>
         <b/>
         <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="1"/>
       </font>
     </dxf>
@@ -6809,6 +7013,72 @@
       <font>
         <b/>
         <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="1"/>
       </font>
     </dxf>
@@ -7019,6 +7289,72 @@
       <font>
         <b/>
         <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="1"/>
       </font>
     </dxf>
@@ -7229,6 +7565,72 @@
       <font>
         <b/>
         <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="1"/>
       </font>
     </dxf>
@@ -7321,6 +7723,32 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -7413,6 +7841,72 @@
       <font>
         <b/>
         <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="1"/>
       </font>
     </dxf>
@@ -7597,6 +8091,58 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -7663,6 +8209,32 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -7729,6 +8301,58 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -7795,6 +8419,32 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -7861,6 +8511,58 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -7927,6 +8629,32 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -7993,6 +8721,58 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -8125,6 +8905,58 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -8191,6 +9023,32 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -8521,6 +9379,666 @@
       <font>
         <b/>
         <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="1"/>
       </font>
     </dxf>
@@ -17033,6 +18551,1386 @@
           <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -30695,41 +33593,41 @@
     <mergeCell ref="P325:P329"/>
   </mergeCells>
   <conditionalFormatting sqref="O421:O1048576 O1:O2">
-    <cfRule type="cellIs" dxfId="1198" priority="840" operator="equal">
+    <cfRule type="cellIs" dxfId="1348" priority="840" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1197" priority="841" operator="equal">
+    <cfRule type="cellIs" dxfId="1347" priority="841" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1196" priority="842" operator="equal">
+    <cfRule type="cellIs" dxfId="1346" priority="842" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1195" priority="843" operator="equal">
+    <cfRule type="cellIs" dxfId="1345" priority="843" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1194" priority="844" operator="equal">
+    <cfRule type="cellIs" dxfId="1344" priority="844" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1193" priority="845" operator="equal">
+    <cfRule type="cellIs" dxfId="1343" priority="845" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2 C421:C1048576">
-    <cfRule type="cellIs" dxfId="1192" priority="836" operator="equal">
+    <cfRule type="cellIs" dxfId="1342" priority="836" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1191" priority="837" operator="equal">
+    <cfRule type="cellIs" dxfId="1341" priority="837" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1190" priority="838" operator="equal">
+    <cfRule type="cellIs" dxfId="1340" priority="838" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1189" priority="839" operator="equal">
+    <cfRule type="cellIs" dxfId="1339" priority="839" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A421:Q421">
-    <cfRule type="expression" dxfId="1188" priority="835">
+    <cfRule type="expression" dxfId="1338" priority="835">
       <formula>MOD(VALUE(RIGHT($A$3, 3)),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39983,2318 +42881,2318 @@
     <mergeCell ref="AC102:AG102"/>
   </mergeCells>
   <conditionalFormatting sqref="AS1:AS2 AS4">
-    <cfRule type="cellIs" dxfId="1187" priority="913" operator="equal">
+    <cfRule type="cellIs" dxfId="1337" priority="913" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1186" priority="914" operator="equal">
+    <cfRule type="cellIs" dxfId="1336" priority="914" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1185" priority="915" operator="equal">
+    <cfRule type="cellIs" dxfId="1335" priority="915" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1184" priority="916" operator="equal">
+    <cfRule type="cellIs" dxfId="1334" priority="916" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1183" priority="917" operator="equal">
+    <cfRule type="cellIs" dxfId="1333" priority="917" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1182" priority="918" operator="equal">
+    <cfRule type="cellIs" dxfId="1332" priority="918" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2 E4:E14 E31:E37">
-    <cfRule type="cellIs" dxfId="1181" priority="909" operator="equal">
+    <cfRule type="cellIs" dxfId="1331" priority="909" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1180" priority="910" operator="equal">
+    <cfRule type="cellIs" dxfId="1330" priority="910" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1179" priority="911" operator="equal">
+    <cfRule type="cellIs" dxfId="1329" priority="911" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1178" priority="912" operator="equal">
+    <cfRule type="cellIs" dxfId="1328" priority="912" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS5">
-    <cfRule type="cellIs" dxfId="1177" priority="903" operator="equal">
+    <cfRule type="cellIs" dxfId="1327" priority="903" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1176" priority="904" operator="equal">
+    <cfRule type="cellIs" dxfId="1326" priority="904" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1175" priority="905" operator="equal">
+    <cfRule type="cellIs" dxfId="1325" priority="905" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1174" priority="906" operator="equal">
+    <cfRule type="cellIs" dxfId="1324" priority="906" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1173" priority="907" operator="equal">
+    <cfRule type="cellIs" dxfId="1323" priority="907" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1172" priority="908" operator="equal">
+    <cfRule type="cellIs" dxfId="1322" priority="908" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS6">
-    <cfRule type="cellIs" dxfId="1171" priority="893" operator="equal">
+    <cfRule type="cellIs" dxfId="1321" priority="893" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1170" priority="894" operator="equal">
+    <cfRule type="cellIs" dxfId="1320" priority="894" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1169" priority="895" operator="equal">
+    <cfRule type="cellIs" dxfId="1319" priority="895" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1168" priority="896" operator="equal">
+    <cfRule type="cellIs" dxfId="1318" priority="896" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1167" priority="897" operator="equal">
+    <cfRule type="cellIs" dxfId="1317" priority="897" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1166" priority="898" operator="equal">
+    <cfRule type="cellIs" dxfId="1316" priority="898" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS7">
-    <cfRule type="cellIs" dxfId="1165" priority="883" operator="equal">
+    <cfRule type="cellIs" dxfId="1315" priority="883" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1164" priority="884" operator="equal">
+    <cfRule type="cellIs" dxfId="1314" priority="884" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1163" priority="885" operator="equal">
+    <cfRule type="cellIs" dxfId="1313" priority="885" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1162" priority="886" operator="equal">
+    <cfRule type="cellIs" dxfId="1312" priority="886" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1161" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="1311" priority="887" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1160" priority="888" operator="equal">
+    <cfRule type="cellIs" dxfId="1310" priority="888" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS8">
-    <cfRule type="cellIs" dxfId="1159" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="1309" priority="873" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1158" priority="874" operator="equal">
+    <cfRule type="cellIs" dxfId="1308" priority="874" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1157" priority="875" operator="equal">
+    <cfRule type="cellIs" dxfId="1307" priority="875" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1156" priority="876" operator="equal">
+    <cfRule type="cellIs" dxfId="1306" priority="876" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1155" priority="877" operator="equal">
+    <cfRule type="cellIs" dxfId="1305" priority="877" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1154" priority="878" operator="equal">
+    <cfRule type="cellIs" dxfId="1304" priority="878" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS9">
-    <cfRule type="cellIs" dxfId="1153" priority="863" operator="equal">
+    <cfRule type="cellIs" dxfId="1303" priority="863" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1152" priority="864" operator="equal">
+    <cfRule type="cellIs" dxfId="1302" priority="864" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1151" priority="865" operator="equal">
+    <cfRule type="cellIs" dxfId="1301" priority="865" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1150" priority="866" operator="equal">
+    <cfRule type="cellIs" dxfId="1300" priority="866" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1149" priority="867" operator="equal">
+    <cfRule type="cellIs" dxfId="1299" priority="867" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1148" priority="868" operator="equal">
+    <cfRule type="cellIs" dxfId="1298" priority="868" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS10">
-    <cfRule type="cellIs" dxfId="1147" priority="843" operator="equal">
+    <cfRule type="cellIs" dxfId="1297" priority="843" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1146" priority="844" operator="equal">
+    <cfRule type="cellIs" dxfId="1296" priority="844" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1145" priority="845" operator="equal">
+    <cfRule type="cellIs" dxfId="1295" priority="845" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1144" priority="846" operator="equal">
+    <cfRule type="cellIs" dxfId="1294" priority="846" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1143" priority="847" operator="equal">
+    <cfRule type="cellIs" dxfId="1293" priority="847" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1142" priority="848" operator="equal">
+    <cfRule type="cellIs" dxfId="1292" priority="848" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS11">
-    <cfRule type="cellIs" dxfId="1141" priority="833" operator="equal">
+    <cfRule type="cellIs" dxfId="1291" priority="833" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1140" priority="834" operator="equal">
+    <cfRule type="cellIs" dxfId="1290" priority="834" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1139" priority="835" operator="equal">
+    <cfRule type="cellIs" dxfId="1289" priority="835" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1138" priority="836" operator="equal">
+    <cfRule type="cellIs" dxfId="1288" priority="836" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1137" priority="837" operator="equal">
+    <cfRule type="cellIs" dxfId="1287" priority="837" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1136" priority="838" operator="equal">
+    <cfRule type="cellIs" dxfId="1286" priority="838" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS12">
-    <cfRule type="cellIs" dxfId="1135" priority="823" operator="equal">
+    <cfRule type="cellIs" dxfId="1285" priority="823" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1134" priority="824" operator="equal">
+    <cfRule type="cellIs" dxfId="1284" priority="824" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1133" priority="825" operator="equal">
+    <cfRule type="cellIs" dxfId="1283" priority="825" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1132" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="1282" priority="826" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1131" priority="827" operator="equal">
+    <cfRule type="cellIs" dxfId="1281" priority="827" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1130" priority="828" operator="equal">
+    <cfRule type="cellIs" dxfId="1280" priority="828" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS13">
-    <cfRule type="cellIs" dxfId="1129" priority="813" operator="equal">
+    <cfRule type="cellIs" dxfId="1279" priority="813" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1128" priority="814" operator="equal">
+    <cfRule type="cellIs" dxfId="1278" priority="814" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1127" priority="815" operator="equal">
+    <cfRule type="cellIs" dxfId="1277" priority="815" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1126" priority="816" operator="equal">
+    <cfRule type="cellIs" dxfId="1276" priority="816" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1125" priority="817" operator="equal">
+    <cfRule type="cellIs" dxfId="1275" priority="817" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1124" priority="818" operator="equal">
+    <cfRule type="cellIs" dxfId="1274" priority="818" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS14">
-    <cfRule type="cellIs" dxfId="1123" priority="703" operator="equal">
+    <cfRule type="cellIs" dxfId="1273" priority="703" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1122" priority="704" operator="equal">
+    <cfRule type="cellIs" dxfId="1272" priority="704" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1121" priority="705" operator="equal">
+    <cfRule type="cellIs" dxfId="1271" priority="705" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1120" priority="706" operator="equal">
+    <cfRule type="cellIs" dxfId="1270" priority="706" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1119" priority="707" operator="equal">
+    <cfRule type="cellIs" dxfId="1269" priority="707" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1118" priority="708" operator="equal">
+    <cfRule type="cellIs" dxfId="1268" priority="708" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="1117" priority="691" operator="equal">
+    <cfRule type="cellIs" dxfId="1267" priority="691" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1116" priority="692" operator="equal">
+    <cfRule type="cellIs" dxfId="1266" priority="692" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1115" priority="693" operator="equal">
+    <cfRule type="cellIs" dxfId="1265" priority="693" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1114" priority="694" operator="equal">
+    <cfRule type="cellIs" dxfId="1264" priority="694" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS15">
-    <cfRule type="cellIs" dxfId="1113" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="1263" priority="685" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1112" priority="686" operator="equal">
+    <cfRule type="cellIs" dxfId="1262" priority="686" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1111" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="1261" priority="687" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1110" priority="688" operator="equal">
+    <cfRule type="cellIs" dxfId="1260" priority="688" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1109" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="1259" priority="689" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1108" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="1258" priority="690" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="1107" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="1257" priority="681" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1106" priority="682" operator="equal">
+    <cfRule type="cellIs" dxfId="1256" priority="682" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1105" priority="683" operator="equal">
+    <cfRule type="cellIs" dxfId="1255" priority="683" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1104" priority="684" operator="equal">
+    <cfRule type="cellIs" dxfId="1254" priority="684" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS16">
-    <cfRule type="cellIs" dxfId="1103" priority="675" operator="equal">
+    <cfRule type="cellIs" dxfId="1253" priority="675" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1102" priority="676" operator="equal">
+    <cfRule type="cellIs" dxfId="1252" priority="676" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1101" priority="677" operator="equal">
+    <cfRule type="cellIs" dxfId="1251" priority="677" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1100" priority="678" operator="equal">
+    <cfRule type="cellIs" dxfId="1250" priority="678" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1099" priority="679" operator="equal">
+    <cfRule type="cellIs" dxfId="1249" priority="679" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1098" priority="680" operator="equal">
+    <cfRule type="cellIs" dxfId="1248" priority="680" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="1097" priority="671" operator="equal">
+    <cfRule type="cellIs" dxfId="1247" priority="671" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1096" priority="672" operator="equal">
+    <cfRule type="cellIs" dxfId="1246" priority="672" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1095" priority="673" operator="equal">
+    <cfRule type="cellIs" dxfId="1245" priority="673" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1094" priority="674" operator="equal">
+    <cfRule type="cellIs" dxfId="1244" priority="674" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS17">
-    <cfRule type="cellIs" dxfId="1093" priority="665" operator="equal">
+    <cfRule type="cellIs" dxfId="1243" priority="665" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1092" priority="666" operator="equal">
+    <cfRule type="cellIs" dxfId="1242" priority="666" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1091" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="1241" priority="667" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1090" priority="668" operator="equal">
+    <cfRule type="cellIs" dxfId="1240" priority="668" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1089" priority="669" operator="equal">
+    <cfRule type="cellIs" dxfId="1239" priority="669" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1088" priority="670" operator="equal">
+    <cfRule type="cellIs" dxfId="1238" priority="670" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="1087" priority="661" operator="equal">
+    <cfRule type="cellIs" dxfId="1237" priority="661" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1086" priority="662" operator="equal">
+    <cfRule type="cellIs" dxfId="1236" priority="662" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1085" priority="663" operator="equal">
+    <cfRule type="cellIs" dxfId="1235" priority="663" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1084" priority="664" operator="equal">
+    <cfRule type="cellIs" dxfId="1234" priority="664" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS23">
-    <cfRule type="cellIs" dxfId="1083" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="1233" priority="655" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1082" priority="656" operator="equal">
+    <cfRule type="cellIs" dxfId="1232" priority="656" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1081" priority="657" operator="equal">
+    <cfRule type="cellIs" dxfId="1231" priority="657" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1080" priority="658" operator="equal">
+    <cfRule type="cellIs" dxfId="1230" priority="658" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1079" priority="659" operator="equal">
+    <cfRule type="cellIs" dxfId="1229" priority="659" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1078" priority="660" operator="equal">
+    <cfRule type="cellIs" dxfId="1228" priority="660" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="1077" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="1227" priority="651" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1076" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="1226" priority="652" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1075" priority="653" operator="equal">
+    <cfRule type="cellIs" dxfId="1225" priority="653" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1074" priority="654" operator="equal">
+    <cfRule type="cellIs" dxfId="1224" priority="654" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS19">
-    <cfRule type="cellIs" dxfId="1073" priority="645" operator="equal">
+    <cfRule type="cellIs" dxfId="1223" priority="645" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1072" priority="646" operator="equal">
+    <cfRule type="cellIs" dxfId="1222" priority="646" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1071" priority="647" operator="equal">
+    <cfRule type="cellIs" dxfId="1221" priority="647" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1070" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="1220" priority="648" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1069" priority="649" operator="equal">
+    <cfRule type="cellIs" dxfId="1219" priority="649" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1068" priority="650" operator="equal">
+    <cfRule type="cellIs" dxfId="1218" priority="650" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="1067" priority="641" operator="equal">
+    <cfRule type="cellIs" dxfId="1217" priority="641" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1066" priority="642" operator="equal">
+    <cfRule type="cellIs" dxfId="1216" priority="642" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1065" priority="643" operator="equal">
+    <cfRule type="cellIs" dxfId="1215" priority="643" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1064" priority="644" operator="equal">
+    <cfRule type="cellIs" dxfId="1214" priority="644" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS21">
-    <cfRule type="cellIs" dxfId="1063" priority="635" operator="equal">
+    <cfRule type="cellIs" dxfId="1213" priority="635" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1062" priority="636" operator="equal">
+    <cfRule type="cellIs" dxfId="1212" priority="636" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1061" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="1211" priority="637" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1060" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="1210" priority="638" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1059" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="1209" priority="639" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1058" priority="640" operator="equal">
+    <cfRule type="cellIs" dxfId="1208" priority="640" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="1057" priority="631" operator="equal">
+    <cfRule type="cellIs" dxfId="1207" priority="631" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1056" priority="632" operator="equal">
+    <cfRule type="cellIs" dxfId="1206" priority="632" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1055" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="1205" priority="633" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1054" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="1204" priority="634" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS25">
-    <cfRule type="cellIs" dxfId="1053" priority="625" operator="equal">
+    <cfRule type="cellIs" dxfId="1203" priority="625" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1052" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="1202" priority="626" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1051" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="1201" priority="627" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1050" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="1200" priority="628" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1049" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="1199" priority="629" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1048" priority="630" operator="equal">
+    <cfRule type="cellIs" dxfId="1198" priority="630" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="1047" priority="621" operator="equal">
+    <cfRule type="cellIs" dxfId="1197" priority="621" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1046" priority="622" operator="equal">
+    <cfRule type="cellIs" dxfId="1196" priority="622" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1045" priority="623" operator="equal">
+    <cfRule type="cellIs" dxfId="1195" priority="623" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1044" priority="624" operator="equal">
+    <cfRule type="cellIs" dxfId="1194" priority="624" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS26">
-    <cfRule type="cellIs" dxfId="1043" priority="615" operator="equal">
+    <cfRule type="cellIs" dxfId="1193" priority="615" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1042" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="1192" priority="616" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1041" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="1191" priority="617" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1040" priority="618" operator="equal">
+    <cfRule type="cellIs" dxfId="1190" priority="618" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1039" priority="619" operator="equal">
+    <cfRule type="cellIs" dxfId="1189" priority="619" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1038" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="1188" priority="620" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="1037" priority="611" operator="equal">
+    <cfRule type="cellIs" dxfId="1187" priority="611" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1036" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="1186" priority="612" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1035" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="1185" priority="613" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1034" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="1184" priority="614" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS27">
-    <cfRule type="cellIs" dxfId="1033" priority="605" operator="equal">
+    <cfRule type="cellIs" dxfId="1183" priority="605" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1032" priority="606" operator="equal">
+    <cfRule type="cellIs" dxfId="1182" priority="606" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1031" priority="607" operator="equal">
+    <cfRule type="cellIs" dxfId="1181" priority="607" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1030" priority="608" operator="equal">
+    <cfRule type="cellIs" dxfId="1180" priority="608" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1029" priority="609" operator="equal">
+    <cfRule type="cellIs" dxfId="1179" priority="609" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1028" priority="610" operator="equal">
+    <cfRule type="cellIs" dxfId="1178" priority="610" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="1027" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="1177" priority="601" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1026" priority="602" operator="equal">
+    <cfRule type="cellIs" dxfId="1176" priority="602" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1025" priority="603" operator="equal">
+    <cfRule type="cellIs" dxfId="1175" priority="603" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1024" priority="604" operator="equal">
+    <cfRule type="cellIs" dxfId="1174" priority="604" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS28">
-    <cfRule type="cellIs" dxfId="1023" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="1173" priority="589" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1022" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="1172" priority="590" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1021" priority="591" operator="equal">
+    <cfRule type="cellIs" dxfId="1171" priority="591" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1020" priority="592" operator="equal">
+    <cfRule type="cellIs" dxfId="1170" priority="592" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1019" priority="593" operator="equal">
+    <cfRule type="cellIs" dxfId="1169" priority="593" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1018" priority="594" operator="equal">
+    <cfRule type="cellIs" dxfId="1168" priority="594" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS31">
-    <cfRule type="cellIs" dxfId="1017" priority="583" operator="equal">
+    <cfRule type="cellIs" dxfId="1167" priority="583" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1016" priority="584" operator="equal">
+    <cfRule type="cellIs" dxfId="1166" priority="584" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1015" priority="585" operator="equal">
+    <cfRule type="cellIs" dxfId="1165" priority="585" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1014" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="1164" priority="586" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1013" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="1163" priority="587" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1012" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="1162" priority="588" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS32">
-    <cfRule type="cellIs" dxfId="1011" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="1161" priority="573" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1010" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="1160" priority="574" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1009" priority="575" operator="equal">
+    <cfRule type="cellIs" dxfId="1159" priority="575" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1008" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="1158" priority="576" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1007" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="1157" priority="577" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1006" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="1156" priority="578" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS33">
-    <cfRule type="cellIs" dxfId="1005" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="1155" priority="567" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1004" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="1154" priority="568" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1003" priority="569" operator="equal">
+    <cfRule type="cellIs" dxfId="1153" priority="569" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1002" priority="570" operator="equal">
+    <cfRule type="cellIs" dxfId="1152" priority="570" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1001" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="1151" priority="571" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1000" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="1150" priority="572" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS34">
-    <cfRule type="cellIs" dxfId="999" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="1149" priority="561" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="998" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="1148" priority="562" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="997" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="1147" priority="563" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="996" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="1146" priority="564" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="995" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="1145" priority="565" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="994" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="1144" priority="566" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35">
-    <cfRule type="cellIs" dxfId="993" priority="543" operator="equal">
+    <cfRule type="cellIs" dxfId="1143" priority="543" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="992" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="1142" priority="544" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="991" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="1141" priority="545" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="990" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="1140" priority="546" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="989" priority="547" operator="equal">
+    <cfRule type="cellIs" dxfId="1139" priority="547" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="988" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="1138" priority="548" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS36">
-    <cfRule type="cellIs" dxfId="987" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="1137" priority="537" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="986" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="1136" priority="538" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="985" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="1135" priority="539" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="984" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="1134" priority="540" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="983" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="1133" priority="541" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="982" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="1132" priority="542" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS37">
-    <cfRule type="cellIs" dxfId="981" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="1131" priority="519" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="980" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="1130" priority="520" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="979" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="1129" priority="521" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="978" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="1128" priority="522" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="977" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="1127" priority="523" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="976" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="1126" priority="524" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="975" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="1125" priority="515" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="974" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="1124" priority="516" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="973" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="1123" priority="517" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="972" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="1122" priority="518" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS38">
-    <cfRule type="cellIs" dxfId="971" priority="509" operator="equal">
+    <cfRule type="cellIs" dxfId="1121" priority="509" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="970" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="1120" priority="510" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="969" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="1119" priority="511" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="968" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="1118" priority="512" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="967" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="1117" priority="513" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="966" priority="514" operator="equal">
+    <cfRule type="cellIs" dxfId="1116" priority="514" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="965" priority="505" operator="equal">
+    <cfRule type="cellIs" dxfId="1115" priority="505" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="964" priority="506" operator="equal">
+    <cfRule type="cellIs" dxfId="1114" priority="506" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="963" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="1113" priority="507" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="962" priority="508" operator="equal">
+    <cfRule type="cellIs" dxfId="1112" priority="508" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS39">
-    <cfRule type="cellIs" dxfId="961" priority="499" operator="equal">
+    <cfRule type="cellIs" dxfId="1111" priority="499" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="960" priority="500" operator="equal">
+    <cfRule type="cellIs" dxfId="1110" priority="500" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="959" priority="501" operator="equal">
+    <cfRule type="cellIs" dxfId="1109" priority="501" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="958" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="1108" priority="502" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="957" priority="503" operator="equal">
+    <cfRule type="cellIs" dxfId="1107" priority="503" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="956" priority="504" operator="equal">
+    <cfRule type="cellIs" dxfId="1106" priority="504" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="955" priority="495" operator="equal">
+    <cfRule type="cellIs" dxfId="1105" priority="495" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="954" priority="496" operator="equal">
+    <cfRule type="cellIs" dxfId="1104" priority="496" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="953" priority="497" operator="equal">
+    <cfRule type="cellIs" dxfId="1103" priority="497" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="952" priority="498" operator="equal">
+    <cfRule type="cellIs" dxfId="1102" priority="498" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS40">
-    <cfRule type="cellIs" dxfId="951" priority="489" operator="equal">
+    <cfRule type="cellIs" dxfId="1101" priority="489" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="950" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="1100" priority="490" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="949" priority="491" operator="equal">
+    <cfRule type="cellIs" dxfId="1099" priority="491" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="948" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="1098" priority="492" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="947" priority="493" operator="equal">
+    <cfRule type="cellIs" dxfId="1097" priority="493" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="946" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="1096" priority="494" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="945" priority="485" operator="equal">
+    <cfRule type="cellIs" dxfId="1095" priority="485" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="944" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="1094" priority="486" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="943" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="1093" priority="487" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="942" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="1092" priority="488" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS46">
-    <cfRule type="cellIs" dxfId="941" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="1091" priority="479" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="940" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="1090" priority="480" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="939" priority="481" operator="equal">
+    <cfRule type="cellIs" dxfId="1089" priority="481" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="938" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="1088" priority="482" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="937" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="1087" priority="483" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="936" priority="484" operator="equal">
+    <cfRule type="cellIs" dxfId="1086" priority="484" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="935" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="1085" priority="475" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="934" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="1084" priority="476" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="933" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="1083" priority="477" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="932" priority="478" operator="equal">
+    <cfRule type="cellIs" dxfId="1082" priority="478" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42">
-    <cfRule type="cellIs" dxfId="931" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="1081" priority="469" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="930" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="1080" priority="470" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="929" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="1079" priority="471" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="928" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="1078" priority="472" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="927" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="1077" priority="473" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="926" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="1076" priority="474" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="925" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="1075" priority="465" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="924" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="1074" priority="466" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="923" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="1073" priority="467" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="922" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="1072" priority="468" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS44">
-    <cfRule type="cellIs" dxfId="921" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="1071" priority="459" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="920" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="1070" priority="460" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="919" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="1069" priority="461" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="918" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="1068" priority="462" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="917" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="1067" priority="463" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="916" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="1066" priority="464" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="915" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="1065" priority="455" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="914" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="1064" priority="456" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="913" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="1063" priority="457" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="912" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="1062" priority="458" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS48">
-    <cfRule type="cellIs" dxfId="911" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="1061" priority="449" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="910" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="1060" priority="450" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="909" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="1059" priority="451" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="908" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="1058" priority="452" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="907" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="1057" priority="453" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="906" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="1056" priority="454" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="905" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="1055" priority="445" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="904" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="1054" priority="446" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="903" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="1053" priority="447" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="902" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="1052" priority="448" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS49">
-    <cfRule type="cellIs" dxfId="901" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="1051" priority="439" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="900" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="1050" priority="440" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="899" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="1049" priority="441" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="898" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="1048" priority="442" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="897" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="1047" priority="443" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="896" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="1046" priority="444" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="895" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="1045" priority="435" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="894" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="1044" priority="436" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="893" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="1043" priority="437" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="892" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="1042" priority="438" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS50">
-    <cfRule type="cellIs" dxfId="891" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="1041" priority="429" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="890" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="1040" priority="430" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="889" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="1039" priority="431" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="888" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="1038" priority="432" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="887" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="1037" priority="433" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="886" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="1036" priority="434" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="885" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="1035" priority="425" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="884" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="1034" priority="426" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="883" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="1033" priority="427" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="882" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="1032" priority="428" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS51">
-    <cfRule type="cellIs" dxfId="881" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="1031" priority="419" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="880" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="1030" priority="420" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="879" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="1029" priority="421" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="878" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="1028" priority="422" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="877" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="1027" priority="423" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="876" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="1026" priority="424" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="875" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="1025" priority="415" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="874" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="1024" priority="416" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="873" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="1023" priority="417" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="872" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="1022" priority="418" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS77">
-    <cfRule type="cellIs" dxfId="871" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="1021" priority="409" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="870" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="1020" priority="410" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="869" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="1019" priority="411" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="868" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="1018" priority="412" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="867" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="1017" priority="413" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="866" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="1016" priority="414" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:E60">
-    <cfRule type="cellIs" dxfId="865" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="1015" priority="405" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="864" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="1014" priority="406" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="863" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="1013" priority="407" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="862" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="1012" priority="408" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS54">
-    <cfRule type="cellIs" dxfId="861" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="1011" priority="399" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="860" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="1010" priority="400" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="859" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="1009" priority="401" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="858" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="1008" priority="402" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="857" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="1007" priority="403" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="856" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="1006" priority="404" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS55">
-    <cfRule type="cellIs" dxfId="855" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="1005" priority="393" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="854" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="1004" priority="394" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="853" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="1003" priority="395" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="852" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="1002" priority="396" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="851" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="1001" priority="397" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="850" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="1000" priority="398" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS56">
-    <cfRule type="cellIs" dxfId="849" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="999" priority="387" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="848" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="998" priority="388" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="847" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="997" priority="389" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="846" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="996" priority="390" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="845" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="995" priority="391" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="844" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="994" priority="392" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS57">
-    <cfRule type="cellIs" dxfId="843" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="993" priority="381" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="842" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="992" priority="382" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="841" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="991" priority="383" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="840" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="990" priority="384" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="839" priority="385" operator="equal">
+    <cfRule type="cellIs" dxfId="989" priority="385" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="838" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="988" priority="386" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS58">
-    <cfRule type="cellIs" dxfId="837" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="987" priority="375" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="836" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="986" priority="376" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="835" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="985" priority="377" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="834" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="984" priority="378" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="833" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="983" priority="379" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="832" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="982" priority="380" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS59">
-    <cfRule type="cellIs" dxfId="831" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="981" priority="369" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="830" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="980" priority="370" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="829" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="979" priority="371" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="828" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="978" priority="372" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="827" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="977" priority="373" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="826" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="976" priority="374" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS60">
-    <cfRule type="cellIs" dxfId="825" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="975" priority="363" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="824" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="974" priority="364" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="823" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="973" priority="365" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="822" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="972" priority="366" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="821" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="971" priority="367" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="820" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="970" priority="368" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="819" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="969" priority="359" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="818" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="968" priority="360" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="817" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="967" priority="361" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="816" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="966" priority="362" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS61">
-    <cfRule type="cellIs" dxfId="815" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="965" priority="353" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="814" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="964" priority="354" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="813" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="963" priority="355" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="812" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="962" priority="356" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="811" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="961" priority="357" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="810" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="960" priority="358" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="809" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="959" priority="349" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="808" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="958" priority="350" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="807" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="957" priority="351" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="806" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="956" priority="352" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS62">
-    <cfRule type="cellIs" dxfId="805" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="955" priority="343" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="804" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="954" priority="344" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="803" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="953" priority="345" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="802" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="952" priority="346" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="801" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="951" priority="347" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="800" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="950" priority="348" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="799" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="949" priority="339" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="798" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="948" priority="340" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="797" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="947" priority="341" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="796" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="946" priority="342" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS63">
-    <cfRule type="cellIs" dxfId="795" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="945" priority="333" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="794" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="944" priority="334" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="793" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="943" priority="335" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="792" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="942" priority="336" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="791" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="941" priority="337" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="790" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="940" priority="338" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="779" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="929" priority="319" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="928" priority="320" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="777" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="927" priority="321" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="776" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="926" priority="322" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS65">
-    <cfRule type="cellIs" dxfId="775" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="925" priority="313" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="774" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="924" priority="314" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="773" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="923" priority="315" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="922" priority="316" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="771" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="921" priority="317" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="770" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="920" priority="318" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="769" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="919" priority="289" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="768" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="918" priority="290" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="767" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="917" priority="291" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="766" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="916" priority="292" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS72">
-    <cfRule type="cellIs" dxfId="765" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="915" priority="283" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="764" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="914" priority="284" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="763" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="913" priority="285" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="762" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="912" priority="286" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="761" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="911" priority="287" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="760" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="910" priority="288" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="759" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="909" priority="299" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="758" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="908" priority="300" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="757" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="907" priority="301" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="756" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="906" priority="302" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS71">
-    <cfRule type="cellIs" dxfId="755" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="905" priority="293" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="754" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="904" priority="294" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="753" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="903" priority="295" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="752" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="902" priority="296" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="751" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="901" priority="297" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="750" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="900" priority="298" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="739" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="889" priority="279" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="738" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="888" priority="280" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="737" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="887" priority="281" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="736" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="886" priority="282" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS73">
-    <cfRule type="cellIs" dxfId="735" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="885" priority="273" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="734" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="884" priority="274" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="883" priority="275" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="732" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="882" priority="276" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="731" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="881" priority="277" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="730" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="880" priority="278" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="729" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="879" priority="269" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="728" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="878" priority="270" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="727" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="877" priority="271" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="726" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="876" priority="272" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS74">
-    <cfRule type="cellIs" dxfId="725" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="875" priority="263" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="724" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="874" priority="264" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="723" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="873" priority="265" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="722" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="872" priority="266" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="871" priority="267" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="720" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="870" priority="268" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:E81">
-    <cfRule type="cellIs" dxfId="719" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="869" priority="259" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="718" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="868" priority="260" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="717" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="867" priority="261" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="716" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="866" priority="262" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS80">
-    <cfRule type="cellIs" dxfId="715" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="865" priority="253" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="714" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="864" priority="254" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="713" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="863" priority="255" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="862" priority="256" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="861" priority="257" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="710" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="860" priority="258" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="709" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="859" priority="249" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="858" priority="250" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="707" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="857" priority="251" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="856" priority="252" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS82">
-    <cfRule type="cellIs" dxfId="705" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="855" priority="243" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="704" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="854" priority="244" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="703" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="853" priority="245" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="702" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="852" priority="246" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="701" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="851" priority="247" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="700" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="850" priority="248" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS81">
-    <cfRule type="cellIs" dxfId="699" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="849" priority="237" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="848" priority="238" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="697" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="847" priority="239" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="696" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="846" priority="240" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="695" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="845" priority="241" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="844" priority="242" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="693" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="843" priority="233" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="692" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="842" priority="234" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="691" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="841" priority="235" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="840" priority="236" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS79">
-    <cfRule type="cellIs" dxfId="689" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="839" priority="227" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="688" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="838" priority="228" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="837" priority="229" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="836" priority="230" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="685" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="835" priority="231" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="232" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="683" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="833" priority="223" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="832" priority="224" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="681" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="831" priority="225" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="680" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="830" priority="226" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS78">
-    <cfRule type="cellIs" dxfId="679" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="829" priority="217" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="678" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="218" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="677" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="827" priority="219" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="220" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="675" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="825" priority="221" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="674" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="824" priority="222" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="673" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="823" priority="213" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="672" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="214" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="671" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="821" priority="215" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="670" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="216" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS84">
-    <cfRule type="cellIs" dxfId="669" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="819" priority="207" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="668" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="208" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="817" priority="209" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="210" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="665" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="815" priority="211" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="212" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="663" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="203" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="662" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="204" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="661" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="811" priority="205" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="206" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS87">
-    <cfRule type="cellIs" dxfId="659" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="809" priority="197" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="658" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="198" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="657" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="199" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="656" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="200" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="805" priority="201" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="202" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS97">
-    <cfRule type="cellIs" dxfId="653" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="803" priority="61" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="652" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="802" priority="62" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="63" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="64" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="649" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="799" priority="65" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="648" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="66" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="647" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="797" priority="187" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="796" priority="188" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="189" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="644" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="190" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS86">
-    <cfRule type="cellIs" dxfId="643" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="793" priority="181" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="182" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="641" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="791" priority="183" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="790" priority="184" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="185" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="638" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="186" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="637" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="787" priority="177" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="636" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="178" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="635" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="785" priority="179" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="784" priority="180" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS85">
-    <cfRule type="cellIs" dxfId="633" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="171" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="632" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="172" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="781" priority="173" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="174" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="629" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="779" priority="175" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="176" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="627" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="167" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="168" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="775" priority="169" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="170" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS88">
-    <cfRule type="cellIs" dxfId="623" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="161" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="162" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="771" priority="163" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="164" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="769" priority="165" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="166" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="617" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="767" priority="157" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="158" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="615" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="159" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="614" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="160" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS89">
-    <cfRule type="cellIs" dxfId="613" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="763" priority="151" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="612" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="152" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="611" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="153" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="610" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="760" priority="154" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="155" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="608" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="156" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="607" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="757" priority="147" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="148" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="605" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="755" priority="149" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="754" priority="150" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS92">
-    <cfRule type="cellIs" dxfId="603" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="141" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="602" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="142" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="601" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="143" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="144" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="599" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="145" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="146" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="597" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="137" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="596" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="138" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="139" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="140" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS91">
-    <cfRule type="cellIs" dxfId="593" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="131" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="132" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="133" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="590" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="134" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="135" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="136" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="587" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="127" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="128" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="129" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="584" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="130" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS90">
-    <cfRule type="cellIs" dxfId="583" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="121" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="122" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="581" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="123" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="124" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="125" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="126" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="577" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="47" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="48" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="49" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="50" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS100">
-    <cfRule type="cellIs" dxfId="573" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="41" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="572" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="42" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="43" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="44" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="45" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="46" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="567" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="107" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="108" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="109" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="110" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS93">
-    <cfRule type="cellIs" dxfId="563" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="713" priority="101" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="102" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="103" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="560" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="104" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="105" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="106" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="557" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="97" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="98" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="99" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="704" priority="100" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS96">
-    <cfRule type="cellIs" dxfId="553" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="91" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="92" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="93" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="94" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="95" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="548" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="96" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="547" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="87" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="88" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="545" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="89" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="90" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS99">
-    <cfRule type="cellIs" dxfId="543" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="81" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="82" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="691" priority="83" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="84" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="689" priority="85" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="86" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="537" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="77" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="78" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="685" priority="79" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="80" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS98">
-    <cfRule type="cellIs" dxfId="533" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="71" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="72" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="73" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="74" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="75" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="76" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="527" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="677" priority="67" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="68" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="69" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="70" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="523" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="673" priority="27" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="28" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="521" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="671" priority="29" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="30" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS101">
-    <cfRule type="cellIs" dxfId="519" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="669" priority="21" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="22" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="667" priority="23" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="24" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="515" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="25" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="26" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="513" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="37" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="38" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="39" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="40" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS94">
-    <cfRule type="cellIs" dxfId="509" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="31" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="32" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="657" priority="33" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="34" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="35" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="36" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="503" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="17" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="18" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="19" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="20" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS69">
-    <cfRule type="cellIs" dxfId="499" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="11" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="12" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="13" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="14" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="15" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="16" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="493" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="643" priority="7" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="8" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="9" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="10" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS67">
-    <cfRule type="cellIs" dxfId="489" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="1" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="637" priority="3" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="4" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="5" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="634" priority="6" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42359,10 +45257,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX278"/>
+  <dimension ref="A1:AX293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H9"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M293" sqref="M293:R293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -59612,6 +62510,1219 @@
       <c r="AW278" s="395"/>
       <c r="AX278" s="396"/>
     </row>
+    <row r="279" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="407" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B279" s="408"/>
+      <c r="C279" s="408"/>
+      <c r="D279" s="408"/>
+      <c r="E279" s="408"/>
+      <c r="F279" s="408"/>
+      <c r="G279" s="408"/>
+      <c r="H279" s="408"/>
+      <c r="I279" s="408"/>
+      <c r="J279" s="408"/>
+      <c r="K279" s="408"/>
+      <c r="L279" s="408"/>
+      <c r="M279" s="408"/>
+      <c r="N279" s="408"/>
+      <c r="O279" s="408"/>
+      <c r="P279" s="408"/>
+      <c r="Q279" s="408"/>
+      <c r="R279" s="408"/>
+      <c r="S279" s="408"/>
+      <c r="T279" s="408"/>
+      <c r="U279" s="408"/>
+      <c r="V279" s="408"/>
+      <c r="W279" s="408"/>
+      <c r="X279" s="408"/>
+      <c r="Y279" s="408"/>
+      <c r="Z279" s="408"/>
+      <c r="AA279" s="408"/>
+      <c r="AB279" s="408"/>
+      <c r="AC279" s="408"/>
+      <c r="AD279" s="408"/>
+      <c r="AE279" s="408"/>
+      <c r="AF279" s="408"/>
+      <c r="AG279" s="408"/>
+      <c r="AH279" s="408"/>
+      <c r="AI279" s="408"/>
+      <c r="AJ279" s="408"/>
+      <c r="AK279" s="408"/>
+      <c r="AL279" s="408"/>
+      <c r="AM279" s="408"/>
+      <c r="AN279" s="408"/>
+      <c r="AO279" s="408"/>
+      <c r="AP279" s="408"/>
+      <c r="AQ279" s="408"/>
+      <c r="AR279" s="408"/>
+      <c r="AS279" s="408"/>
+      <c r="AT279" s="408"/>
+      <c r="AU279" s="408"/>
+      <c r="AV279" s="408"/>
+      <c r="AW279" s="408"/>
+      <c r="AX279" s="409"/>
+    </row>
+    <row r="280" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="110" t="s">
+        <v>357</v>
+      </c>
+      <c r="B280" s="401" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C280" s="402"/>
+      <c r="D280" s="403"/>
+      <c r="E280" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="F280" s="110"/>
+      <c r="G280" s="273" t="s">
+        <v>327</v>
+      </c>
+      <c r="H280" s="275"/>
+      <c r="I280" s="276" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J280" s="277"/>
+      <c r="K280" s="277"/>
+      <c r="L280" s="335"/>
+      <c r="M280" s="404" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N280" s="405"/>
+      <c r="O280" s="405"/>
+      <c r="P280" s="405"/>
+      <c r="Q280" s="405"/>
+      <c r="R280" s="406"/>
+      <c r="S280" s="401" t="s">
+        <v>3</v>
+      </c>
+      <c r="T280" s="403"/>
+      <c r="U280" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="V280" s="276" t="s">
+        <v>1110</v>
+      </c>
+      <c r="W280" s="402"/>
+      <c r="X280" s="402"/>
+      <c r="Y280" s="402"/>
+      <c r="Z280" s="402"/>
+      <c r="AA280" s="402"/>
+      <c r="AB280" s="403"/>
+      <c r="AC280" s="334" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AD280" s="277"/>
+      <c r="AE280" s="277"/>
+      <c r="AF280" s="277"/>
+      <c r="AG280" s="335"/>
+      <c r="AH280" s="110"/>
+      <c r="AI280" s="110"/>
+      <c r="AJ280" s="318" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AK280" s="400"/>
+      <c r="AL280" s="278"/>
+      <c r="AM280" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN280" s="110" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO280" s="318"/>
+      <c r="AP280" s="278"/>
+      <c r="AQ280" s="110">
+        <v>30</v>
+      </c>
+      <c r="AR280" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="AS280" s="110" t="str">
+        <f t="shared" ref="AS280" si="19">IF(AM280="o","Plan","Not Test")</f>
+        <v>Plan</v>
+      </c>
+      <c r="AT280" s="110"/>
+      <c r="AU280" s="273"/>
+      <c r="AV280" s="274"/>
+      <c r="AW280" s="274"/>
+      <c r="AX280" s="275"/>
+    </row>
+    <row r="281" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="110" t="s">
+        <v>360</v>
+      </c>
+      <c r="B281" s="276" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C281" s="277"/>
+      <c r="D281" s="335"/>
+      <c r="E281" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="F281" s="110"/>
+      <c r="G281" s="273" t="s">
+        <v>327</v>
+      </c>
+      <c r="H281" s="275"/>
+      <c r="I281" s="276" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J281" s="277"/>
+      <c r="K281" s="277"/>
+      <c r="L281" s="335"/>
+      <c r="M281" s="404" t="s">
+        <v>1114</v>
+      </c>
+      <c r="N281" s="405"/>
+      <c r="O281" s="405"/>
+      <c r="P281" s="405"/>
+      <c r="Q281" s="405"/>
+      <c r="R281" s="406"/>
+      <c r="S281" s="401" t="s">
+        <v>3</v>
+      </c>
+      <c r="T281" s="403"/>
+      <c r="U281" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="V281" s="276" t="s">
+        <v>1110</v>
+      </c>
+      <c r="W281" s="402"/>
+      <c r="X281" s="402"/>
+      <c r="Y281" s="402"/>
+      <c r="Z281" s="402"/>
+      <c r="AA281" s="402"/>
+      <c r="AB281" s="403"/>
+      <c r="AC281" s="334" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AD281" s="277"/>
+      <c r="AE281" s="277"/>
+      <c r="AF281" s="277"/>
+      <c r="AG281" s="335"/>
+      <c r="AH281" s="110"/>
+      <c r="AI281" s="110"/>
+      <c r="AJ281" s="318" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AK281" s="400"/>
+      <c r="AL281" s="278"/>
+      <c r="AM281" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN281" s="110" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO281" s="318"/>
+      <c r="AP281" s="278"/>
+      <c r="AQ281" s="110">
+        <v>30</v>
+      </c>
+      <c r="AR281" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="AS281" s="110" t="str">
+        <f t="shared" ref="AS281:AS282" si="20">IF(AM281="o","Plan","Not Test")</f>
+        <v>Plan</v>
+      </c>
+      <c r="AT281" s="110"/>
+      <c r="AU281" s="273"/>
+      <c r="AV281" s="274"/>
+      <c r="AW281" s="274"/>
+      <c r="AX281" s="275"/>
+    </row>
+    <row r="282" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="110" t="s">
+        <v>366</v>
+      </c>
+      <c r="B282" s="401" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C282" s="402"/>
+      <c r="D282" s="403"/>
+      <c r="E282" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="F282" s="110"/>
+      <c r="G282" s="273" t="s">
+        <v>338</v>
+      </c>
+      <c r="H282" s="275"/>
+      <c r="I282" s="276" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J282" s="277"/>
+      <c r="K282" s="277"/>
+      <c r="L282" s="335"/>
+      <c r="M282" s="404" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N282" s="405"/>
+      <c r="O282" s="405"/>
+      <c r="P282" s="405"/>
+      <c r="Q282" s="405"/>
+      <c r="R282" s="406"/>
+      <c r="S282" s="401" t="s">
+        <v>3</v>
+      </c>
+      <c r="T282" s="403"/>
+      <c r="U282" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="V282" s="276" t="s">
+        <v>1115</v>
+      </c>
+      <c r="W282" s="402"/>
+      <c r="X282" s="402"/>
+      <c r="Y282" s="402"/>
+      <c r="Z282" s="402"/>
+      <c r="AA282" s="402"/>
+      <c r="AB282" s="403"/>
+      <c r="AC282" s="334" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AD282" s="277"/>
+      <c r="AE282" s="277"/>
+      <c r="AF282" s="277"/>
+      <c r="AG282" s="335"/>
+      <c r="AH282" s="110"/>
+      <c r="AI282" s="110"/>
+      <c r="AJ282" s="318" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AK282" s="400"/>
+      <c r="AL282" s="278"/>
+      <c r="AM282" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN282" s="110" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO282" s="318"/>
+      <c r="AP282" s="278"/>
+      <c r="AQ282" s="110">
+        <v>30</v>
+      </c>
+      <c r="AR282" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="AS282" s="110" t="str">
+        <f t="shared" si="20"/>
+        <v>Plan</v>
+      </c>
+      <c r="AT282" s="110"/>
+      <c r="AU282" s="273"/>
+      <c r="AV282" s="274"/>
+      <c r="AW282" s="274"/>
+      <c r="AX282" s="275"/>
+    </row>
+    <row r="283" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="B283" s="276" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C283" s="277"/>
+      <c r="D283" s="335"/>
+      <c r="E283" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="F283" s="110"/>
+      <c r="G283" s="273" t="s">
+        <v>338</v>
+      </c>
+      <c r="H283" s="275"/>
+      <c r="I283" s="276" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J283" s="277"/>
+      <c r="K283" s="277"/>
+      <c r="L283" s="335"/>
+      <c r="M283" s="404" t="s">
+        <v>1114</v>
+      </c>
+      <c r="N283" s="405"/>
+      <c r="O283" s="405"/>
+      <c r="P283" s="405"/>
+      <c r="Q283" s="405"/>
+      <c r="R283" s="406"/>
+      <c r="S283" s="401" t="s">
+        <v>3</v>
+      </c>
+      <c r="T283" s="403"/>
+      <c r="U283" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="V283" s="276" t="s">
+        <v>1115</v>
+      </c>
+      <c r="W283" s="402"/>
+      <c r="X283" s="402"/>
+      <c r="Y283" s="402"/>
+      <c r="Z283" s="402"/>
+      <c r="AA283" s="402"/>
+      <c r="AB283" s="403"/>
+      <c r="AC283" s="334" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AD283" s="277"/>
+      <c r="AE283" s="277"/>
+      <c r="AF283" s="277"/>
+      <c r="AG283" s="335"/>
+      <c r="AH283" s="110"/>
+      <c r="AI283" s="110"/>
+      <c r="AJ283" s="318" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AK283" s="400"/>
+      <c r="AL283" s="278"/>
+      <c r="AM283" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN283" s="110" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO283" s="318"/>
+      <c r="AP283" s="278"/>
+      <c r="AQ283" s="110">
+        <v>30</v>
+      </c>
+      <c r="AR283" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="AS283" s="110" t="str">
+        <f t="shared" ref="AS283:AS284" si="21">IF(AM283="o","Plan","Not Test")</f>
+        <v>Plan</v>
+      </c>
+      <c r="AT283" s="110"/>
+      <c r="AU283" s="273"/>
+      <c r="AV283" s="274"/>
+      <c r="AW283" s="274"/>
+      <c r="AX283" s="275"/>
+    </row>
+    <row r="284" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="110" t="s">
+        <v>374</v>
+      </c>
+      <c r="B284" s="401" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C284" s="402"/>
+      <c r="D284" s="403"/>
+      <c r="E284" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="F284" s="110"/>
+      <c r="G284" s="273" t="s">
+        <v>327</v>
+      </c>
+      <c r="H284" s="275"/>
+      <c r="I284" s="276" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J284" s="277"/>
+      <c r="K284" s="277"/>
+      <c r="L284" s="335"/>
+      <c r="M284" s="404" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N284" s="405"/>
+      <c r="O284" s="405"/>
+      <c r="P284" s="405"/>
+      <c r="Q284" s="405"/>
+      <c r="R284" s="406"/>
+      <c r="S284" s="401" t="s">
+        <v>3</v>
+      </c>
+      <c r="T284" s="403"/>
+      <c r="U284" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="V284" s="343" t="s">
+        <v>1117</v>
+      </c>
+      <c r="W284" s="410"/>
+      <c r="X284" s="410"/>
+      <c r="Y284" s="410"/>
+      <c r="Z284" s="410"/>
+      <c r="AA284" s="410"/>
+      <c r="AB284" s="411"/>
+      <c r="AC284" s="334" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AD284" s="277"/>
+      <c r="AE284" s="277"/>
+      <c r="AF284" s="277"/>
+      <c r="AG284" s="335"/>
+      <c r="AH284" s="110"/>
+      <c r="AI284" s="110"/>
+      <c r="AJ284" s="318" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AK284" s="400"/>
+      <c r="AL284" s="278"/>
+      <c r="AM284" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN284" s="110" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO284" s="318"/>
+      <c r="AP284" s="278"/>
+      <c r="AQ284" s="110">
+        <v>30</v>
+      </c>
+      <c r="AR284" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="AS284" s="110" t="str">
+        <f t="shared" si="21"/>
+        <v>Plan</v>
+      </c>
+      <c r="AT284" s="110"/>
+      <c r="AU284" s="273"/>
+      <c r="AV284" s="274"/>
+      <c r="AW284" s="274"/>
+      <c r="AX284" s="275"/>
+    </row>
+    <row r="285" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="110" t="s">
+        <v>377</v>
+      </c>
+      <c r="B285" s="401" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C285" s="402"/>
+      <c r="D285" s="403"/>
+      <c r="E285" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="F285" s="110"/>
+      <c r="G285" s="273" t="s">
+        <v>327</v>
+      </c>
+      <c r="H285" s="275"/>
+      <c r="I285" s="276" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J285" s="277"/>
+      <c r="K285" s="277"/>
+      <c r="L285" s="335"/>
+      <c r="M285" s="404" t="s">
+        <v>1114</v>
+      </c>
+      <c r="N285" s="405"/>
+      <c r="O285" s="405"/>
+      <c r="P285" s="405"/>
+      <c r="Q285" s="405"/>
+      <c r="R285" s="406"/>
+      <c r="S285" s="401" t="s">
+        <v>3</v>
+      </c>
+      <c r="T285" s="403"/>
+      <c r="U285" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="V285" s="343" t="s">
+        <v>1117</v>
+      </c>
+      <c r="W285" s="410"/>
+      <c r="X285" s="410"/>
+      <c r="Y285" s="410"/>
+      <c r="Z285" s="410"/>
+      <c r="AA285" s="410"/>
+      <c r="AB285" s="411"/>
+      <c r="AC285" s="334" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AD285" s="277"/>
+      <c r="AE285" s="277"/>
+      <c r="AF285" s="277"/>
+      <c r="AG285" s="335"/>
+      <c r="AH285" s="110"/>
+      <c r="AI285" s="110"/>
+      <c r="AJ285" s="318" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AK285" s="400"/>
+      <c r="AL285" s="278"/>
+      <c r="AM285" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN285" s="110" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO285" s="318"/>
+      <c r="AP285" s="278"/>
+      <c r="AQ285" s="110">
+        <v>30</v>
+      </c>
+      <c r="AR285" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="AS285" s="110" t="str">
+        <f t="shared" ref="AS285:AS286" si="22">IF(AM285="o","Plan","Not Test")</f>
+        <v>Plan</v>
+      </c>
+      <c r="AT285" s="110"/>
+      <c r="AU285" s="273"/>
+      <c r="AV285" s="274"/>
+      <c r="AW285" s="274"/>
+      <c r="AX285" s="275"/>
+    </row>
+    <row r="286" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="110" t="s">
+        <v>381</v>
+      </c>
+      <c r="B286" s="401" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C286" s="402"/>
+      <c r="D286" s="403"/>
+      <c r="E286" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="F286" s="110"/>
+      <c r="G286" s="273" t="s">
+        <v>338</v>
+      </c>
+      <c r="H286" s="275"/>
+      <c r="I286" s="276" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J286" s="277"/>
+      <c r="K286" s="277"/>
+      <c r="L286" s="335"/>
+      <c r="M286" s="404" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N286" s="405"/>
+      <c r="O286" s="405"/>
+      <c r="P286" s="405"/>
+      <c r="Q286" s="405"/>
+      <c r="R286" s="406"/>
+      <c r="S286" s="401" t="s">
+        <v>3</v>
+      </c>
+      <c r="T286" s="403"/>
+      <c r="U286" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="V286" s="343" t="s">
+        <v>1120</v>
+      </c>
+      <c r="W286" s="410"/>
+      <c r="X286" s="410"/>
+      <c r="Y286" s="410"/>
+      <c r="Z286" s="410"/>
+      <c r="AA286" s="410"/>
+      <c r="AB286" s="411"/>
+      <c r="AC286" s="334" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AD286" s="277"/>
+      <c r="AE286" s="277"/>
+      <c r="AF286" s="277"/>
+      <c r="AG286" s="335"/>
+      <c r="AH286" s="110"/>
+      <c r="AI286" s="110"/>
+      <c r="AJ286" s="318" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AK286" s="400"/>
+      <c r="AL286" s="278"/>
+      <c r="AM286" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN286" s="110" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO286" s="318"/>
+      <c r="AP286" s="278"/>
+      <c r="AQ286" s="110">
+        <v>30</v>
+      </c>
+      <c r="AR286" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="AS286" s="110" t="str">
+        <f t="shared" si="22"/>
+        <v>Plan</v>
+      </c>
+      <c r="AT286" s="110"/>
+      <c r="AU286" s="273"/>
+      <c r="AV286" s="274"/>
+      <c r="AW286" s="274"/>
+      <c r="AX286" s="275"/>
+    </row>
+    <row r="287" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="110" t="s">
+        <v>383</v>
+      </c>
+      <c r="B287" s="401" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C287" s="402"/>
+      <c r="D287" s="403"/>
+      <c r="E287" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="F287" s="110"/>
+      <c r="G287" s="273" t="s">
+        <v>338</v>
+      </c>
+      <c r="H287" s="275"/>
+      <c r="I287" s="276" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J287" s="277"/>
+      <c r="K287" s="277"/>
+      <c r="L287" s="335"/>
+      <c r="M287" s="404" t="s">
+        <v>1114</v>
+      </c>
+      <c r="N287" s="405"/>
+      <c r="O287" s="405"/>
+      <c r="P287" s="405"/>
+      <c r="Q287" s="405"/>
+      <c r="R287" s="406"/>
+      <c r="S287" s="401" t="s">
+        <v>3</v>
+      </c>
+      <c r="T287" s="403"/>
+      <c r="U287" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="V287" s="343" t="s">
+        <v>1121</v>
+      </c>
+      <c r="W287" s="410"/>
+      <c r="X287" s="410"/>
+      <c r="Y287" s="410"/>
+      <c r="Z287" s="410"/>
+      <c r="AA287" s="410"/>
+      <c r="AB287" s="411"/>
+      <c r="AC287" s="334" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AD287" s="277"/>
+      <c r="AE287" s="277"/>
+      <c r="AF287" s="277"/>
+      <c r="AG287" s="335"/>
+      <c r="AH287" s="110"/>
+      <c r="AI287" s="110"/>
+      <c r="AJ287" s="318" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AK287" s="400"/>
+      <c r="AL287" s="278"/>
+      <c r="AM287" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN287" s="110" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO287" s="318"/>
+      <c r="AP287" s="278"/>
+      <c r="AQ287" s="110">
+        <v>30</v>
+      </c>
+      <c r="AR287" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="AS287" s="110" t="str">
+        <f t="shared" ref="AS287:AS290" si="23">IF(AM287="o","Plan","Not Test")</f>
+        <v>Plan</v>
+      </c>
+      <c r="AT287" s="110"/>
+      <c r="AU287" s="273"/>
+      <c r="AV287" s="274"/>
+      <c r="AW287" s="274"/>
+      <c r="AX287" s="275"/>
+    </row>
+    <row r="288" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="110" t="s">
+        <v>374</v>
+      </c>
+      <c r="B288" s="401" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C288" s="402"/>
+      <c r="D288" s="403"/>
+      <c r="E288" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="F288" s="110"/>
+      <c r="G288" s="273" t="s">
+        <v>327</v>
+      </c>
+      <c r="H288" s="275"/>
+      <c r="I288" s="276" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J288" s="277"/>
+      <c r="K288" s="277"/>
+      <c r="L288" s="335"/>
+      <c r="M288" s="404" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N288" s="405"/>
+      <c r="O288" s="405"/>
+      <c r="P288" s="405"/>
+      <c r="Q288" s="405"/>
+      <c r="R288" s="406"/>
+      <c r="S288" s="401" t="s">
+        <v>3</v>
+      </c>
+      <c r="T288" s="403"/>
+      <c r="U288" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="V288" s="343" t="s">
+        <v>1117</v>
+      </c>
+      <c r="W288" s="410"/>
+      <c r="X288" s="410"/>
+      <c r="Y288" s="410"/>
+      <c r="Z288" s="410"/>
+      <c r="AA288" s="410"/>
+      <c r="AB288" s="411"/>
+      <c r="AC288" s="334" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AD288" s="277"/>
+      <c r="AE288" s="277"/>
+      <c r="AF288" s="277"/>
+      <c r="AG288" s="335"/>
+      <c r="AH288" s="110"/>
+      <c r="AI288" s="110"/>
+      <c r="AJ288" s="318" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AK288" s="400"/>
+      <c r="AL288" s="278"/>
+      <c r="AM288" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN288" s="110" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO288" s="318"/>
+      <c r="AP288" s="278"/>
+      <c r="AQ288" s="110">
+        <v>30</v>
+      </c>
+      <c r="AR288" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="AS288" s="110" t="str">
+        <f t="shared" si="23"/>
+        <v>Plan</v>
+      </c>
+      <c r="AT288" s="110"/>
+      <c r="AU288" s="273"/>
+      <c r="AV288" s="274"/>
+      <c r="AW288" s="274"/>
+      <c r="AX288" s="275"/>
+    </row>
+    <row r="289" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="110" t="s">
+        <v>377</v>
+      </c>
+      <c r="B289" s="401" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C289" s="402"/>
+      <c r="D289" s="403"/>
+      <c r="E289" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="F289" s="110"/>
+      <c r="G289" s="273" t="s">
+        <v>327</v>
+      </c>
+      <c r="H289" s="275"/>
+      <c r="I289" s="276" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J289" s="277"/>
+      <c r="K289" s="277"/>
+      <c r="L289" s="335"/>
+      <c r="M289" s="404" t="s">
+        <v>1114</v>
+      </c>
+      <c r="N289" s="405"/>
+      <c r="O289" s="405"/>
+      <c r="P289" s="405"/>
+      <c r="Q289" s="405"/>
+      <c r="R289" s="406"/>
+      <c r="S289" s="401" t="s">
+        <v>3</v>
+      </c>
+      <c r="T289" s="403"/>
+      <c r="U289" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="V289" s="343" t="s">
+        <v>1117</v>
+      </c>
+      <c r="W289" s="410"/>
+      <c r="X289" s="410"/>
+      <c r="Y289" s="410"/>
+      <c r="Z289" s="410"/>
+      <c r="AA289" s="410"/>
+      <c r="AB289" s="411"/>
+      <c r="AC289" s="334" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AD289" s="277"/>
+      <c r="AE289" s="277"/>
+      <c r="AF289" s="277"/>
+      <c r="AG289" s="335"/>
+      <c r="AH289" s="110"/>
+      <c r="AI289" s="110"/>
+      <c r="AJ289" s="318" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AK289" s="400"/>
+      <c r="AL289" s="278"/>
+      <c r="AM289" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN289" s="110" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO289" s="318"/>
+      <c r="AP289" s="278"/>
+      <c r="AQ289" s="110">
+        <v>30</v>
+      </c>
+      <c r="AR289" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="AS289" s="110" t="str">
+        <f t="shared" si="23"/>
+        <v>Plan</v>
+      </c>
+      <c r="AT289" s="110"/>
+      <c r="AU289" s="273"/>
+      <c r="AV289" s="274"/>
+      <c r="AW289" s="274"/>
+      <c r="AX289" s="275"/>
+    </row>
+    <row r="290" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="110" t="s">
+        <v>381</v>
+      </c>
+      <c r="B290" s="401" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C290" s="402"/>
+      <c r="D290" s="403"/>
+      <c r="E290" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="F290" s="110"/>
+      <c r="G290" s="273" t="s">
+        <v>338</v>
+      </c>
+      <c r="H290" s="275"/>
+      <c r="I290" s="276" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J290" s="277"/>
+      <c r="K290" s="277"/>
+      <c r="L290" s="335"/>
+      <c r="M290" s="404" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N290" s="405"/>
+      <c r="O290" s="405"/>
+      <c r="P290" s="405"/>
+      <c r="Q290" s="405"/>
+      <c r="R290" s="406"/>
+      <c r="S290" s="401" t="s">
+        <v>3</v>
+      </c>
+      <c r="T290" s="403"/>
+      <c r="U290" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="V290" s="343" t="s">
+        <v>1120</v>
+      </c>
+      <c r="W290" s="410"/>
+      <c r="X290" s="410"/>
+      <c r="Y290" s="410"/>
+      <c r="Z290" s="410"/>
+      <c r="AA290" s="410"/>
+      <c r="AB290" s="411"/>
+      <c r="AC290" s="334" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AD290" s="277"/>
+      <c r="AE290" s="277"/>
+      <c r="AF290" s="277"/>
+      <c r="AG290" s="335"/>
+      <c r="AH290" s="110"/>
+      <c r="AI290" s="110"/>
+      <c r="AJ290" s="318" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AK290" s="400"/>
+      <c r="AL290" s="278"/>
+      <c r="AM290" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN290" s="110" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO290" s="318"/>
+      <c r="AP290" s="278"/>
+      <c r="AQ290" s="110">
+        <v>30</v>
+      </c>
+      <c r="AR290" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="AS290" s="110" t="str">
+        <f t="shared" si="23"/>
+        <v>Plan</v>
+      </c>
+      <c r="AT290" s="110"/>
+      <c r="AU290" s="273"/>
+      <c r="AV290" s="274"/>
+      <c r="AW290" s="274"/>
+      <c r="AX290" s="275"/>
+    </row>
+    <row r="291" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="110" t="s">
+        <v>383</v>
+      </c>
+      <c r="B291" s="401" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C291" s="402"/>
+      <c r="D291" s="403"/>
+      <c r="E291" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="F291" s="110"/>
+      <c r="G291" s="273" t="s">
+        <v>338</v>
+      </c>
+      <c r="H291" s="275"/>
+      <c r="I291" s="276" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J291" s="277"/>
+      <c r="K291" s="277"/>
+      <c r="L291" s="335"/>
+      <c r="M291" s="404" t="s">
+        <v>1114</v>
+      </c>
+      <c r="N291" s="405"/>
+      <c r="O291" s="405"/>
+      <c r="P291" s="405"/>
+      <c r="Q291" s="405"/>
+      <c r="R291" s="406"/>
+      <c r="S291" s="401" t="s">
+        <v>3</v>
+      </c>
+      <c r="T291" s="403"/>
+      <c r="U291" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="V291" s="343" t="s">
+        <v>1121</v>
+      </c>
+      <c r="W291" s="410"/>
+      <c r="X291" s="410"/>
+      <c r="Y291" s="410"/>
+      <c r="Z291" s="410"/>
+      <c r="AA291" s="410"/>
+      <c r="AB291" s="411"/>
+      <c r="AC291" s="334" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AD291" s="277"/>
+      <c r="AE291" s="277"/>
+      <c r="AF291" s="277"/>
+      <c r="AG291" s="335"/>
+      <c r="AH291" s="110"/>
+      <c r="AI291" s="110"/>
+      <c r="AJ291" s="318" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AK291" s="400"/>
+      <c r="AL291" s="278"/>
+      <c r="AM291" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN291" s="110" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO291" s="318"/>
+      <c r="AP291" s="278"/>
+      <c r="AQ291" s="110">
+        <v>30</v>
+      </c>
+      <c r="AR291" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="AS291" s="110" t="str">
+        <f t="shared" ref="AS291" si="24">IF(AM291="o","Plan","Not Test")</f>
+        <v>Plan</v>
+      </c>
+      <c r="AT291" s="110"/>
+      <c r="AU291" s="273"/>
+      <c r="AV291" s="274"/>
+      <c r="AW291" s="274"/>
+      <c r="AX291" s="275"/>
+    </row>
+    <row r="292" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="407" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B292" s="408"/>
+      <c r="C292" s="408"/>
+      <c r="D292" s="408"/>
+      <c r="E292" s="408"/>
+      <c r="F292" s="408"/>
+      <c r="G292" s="408"/>
+      <c r="H292" s="408"/>
+      <c r="I292" s="408"/>
+      <c r="J292" s="408"/>
+      <c r="K292" s="408"/>
+      <c r="L292" s="408"/>
+      <c r="M292" s="408"/>
+      <c r="N292" s="408"/>
+      <c r="O292" s="408"/>
+      <c r="P292" s="408"/>
+      <c r="Q292" s="408"/>
+      <c r="R292" s="408"/>
+      <c r="S292" s="408"/>
+      <c r="T292" s="408"/>
+      <c r="U292" s="408"/>
+      <c r="V292" s="408"/>
+      <c r="W292" s="408"/>
+      <c r="X292" s="408"/>
+      <c r="Y292" s="408"/>
+      <c r="Z292" s="408"/>
+      <c r="AA292" s="408"/>
+      <c r="AB292" s="408"/>
+      <c r="AC292" s="408"/>
+      <c r="AD292" s="408"/>
+      <c r="AE292" s="408"/>
+      <c r="AF292" s="408"/>
+      <c r="AG292" s="408"/>
+      <c r="AH292" s="408"/>
+      <c r="AI292" s="408"/>
+      <c r="AJ292" s="408"/>
+      <c r="AK292" s="408"/>
+      <c r="AL292" s="408"/>
+      <c r="AM292" s="408"/>
+      <c r="AN292" s="408"/>
+      <c r="AO292" s="408"/>
+      <c r="AP292" s="408"/>
+      <c r="AQ292" s="408"/>
+      <c r="AR292" s="408"/>
+      <c r="AS292" s="408"/>
+      <c r="AT292" s="408"/>
+      <c r="AU292" s="408"/>
+      <c r="AV292" s="408"/>
+      <c r="AW292" s="408"/>
+      <c r="AX292" s="409"/>
+    </row>
+    <row r="293" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="110" t="s">
+        <v>357</v>
+      </c>
+      <c r="B293" s="401" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C293" s="402"/>
+      <c r="D293" s="403"/>
+      <c r="E293" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="F293" s="110"/>
+      <c r="G293" s="273" t="s">
+        <v>338</v>
+      </c>
+      <c r="H293" s="275"/>
+      <c r="I293" s="276" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J293" s="277"/>
+      <c r="K293" s="277"/>
+      <c r="L293" s="335"/>
+      <c r="M293" s="404" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N293" s="405"/>
+      <c r="O293" s="405"/>
+      <c r="P293" s="405"/>
+      <c r="Q293" s="405"/>
+      <c r="R293" s="406"/>
+      <c r="S293" s="401" t="s">
+        <v>3</v>
+      </c>
+      <c r="T293" s="403"/>
+      <c r="U293" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="V293" s="343" t="s">
+        <v>1129</v>
+      </c>
+      <c r="W293" s="410"/>
+      <c r="X293" s="410"/>
+      <c r="Y293" s="410"/>
+      <c r="Z293" s="410"/>
+      <c r="AA293" s="410"/>
+      <c r="AB293" s="411"/>
+      <c r="AC293" s="334" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AD293" s="277"/>
+      <c r="AE293" s="277"/>
+      <c r="AF293" s="277"/>
+      <c r="AG293" s="335"/>
+      <c r="AH293" s="110"/>
+      <c r="AI293" s="110"/>
+      <c r="AJ293" s="318" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AK293" s="400"/>
+      <c r="AL293" s="278"/>
+      <c r="AM293" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN293" s="110" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO293" s="318"/>
+      <c r="AP293" s="278"/>
+      <c r="AQ293" s="110">
+        <v>30</v>
+      </c>
+      <c r="AR293" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="AS293" s="110" t="str">
+        <f t="shared" ref="AS293" si="25">IF(AM293="o","Plan","Not Test")</f>
+        <v>Plan</v>
+      </c>
+      <c r="AT293" s="110"/>
+      <c r="AU293" s="273"/>
+      <c r="AV293" s="274"/>
+      <c r="AW293" s="274"/>
+      <c r="AX293" s="275"/>
+    </row>
   </sheetData>
   <autoFilter ref="A2:AX278">
     <filterColumn colId="1" showButton="0"/>
@@ -59643,7 +63754,128 @@
     <filterColumn colId="47" showButton="0"/>
     <filterColumn colId="48" showButton="0"/>
   </autoFilter>
-  <mergeCells count="1466">
+  <mergeCells count="1598">
+    <mergeCell ref="B291:D291"/>
+    <mergeCell ref="G291:H291"/>
+    <mergeCell ref="I291:L291"/>
+    <mergeCell ref="M291:R291"/>
+    <mergeCell ref="S291:T291"/>
+    <mergeCell ref="V291:AB291"/>
+    <mergeCell ref="AC291:AG291"/>
+    <mergeCell ref="AJ291:AL291"/>
+    <mergeCell ref="AO291:AP291"/>
+    <mergeCell ref="AU291:AX291"/>
+    <mergeCell ref="A292:AX292"/>
+    <mergeCell ref="B293:D293"/>
+    <mergeCell ref="G293:H293"/>
+    <mergeCell ref="I293:L293"/>
+    <mergeCell ref="M293:R293"/>
+    <mergeCell ref="S293:T293"/>
+    <mergeCell ref="V293:AB293"/>
+    <mergeCell ref="AC293:AG293"/>
+    <mergeCell ref="AJ293:AL293"/>
+    <mergeCell ref="AO293:AP293"/>
+    <mergeCell ref="AU293:AX293"/>
+    <mergeCell ref="B289:D289"/>
+    <mergeCell ref="G289:H289"/>
+    <mergeCell ref="I289:L289"/>
+    <mergeCell ref="M289:R289"/>
+    <mergeCell ref="S289:T289"/>
+    <mergeCell ref="V289:AB289"/>
+    <mergeCell ref="AC289:AG289"/>
+    <mergeCell ref="AJ289:AL289"/>
+    <mergeCell ref="AO289:AP289"/>
+    <mergeCell ref="AU289:AX289"/>
+    <mergeCell ref="B290:D290"/>
+    <mergeCell ref="G290:H290"/>
+    <mergeCell ref="I290:L290"/>
+    <mergeCell ref="M290:R290"/>
+    <mergeCell ref="S290:T290"/>
+    <mergeCell ref="V290:AB290"/>
+    <mergeCell ref="AC290:AG290"/>
+    <mergeCell ref="AJ290:AL290"/>
+    <mergeCell ref="AO290:AP290"/>
+    <mergeCell ref="AU290:AX290"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="G287:H287"/>
+    <mergeCell ref="I287:L287"/>
+    <mergeCell ref="M287:R287"/>
+    <mergeCell ref="S287:T287"/>
+    <mergeCell ref="V287:AB287"/>
+    <mergeCell ref="AC287:AG287"/>
+    <mergeCell ref="AJ287:AL287"/>
+    <mergeCell ref="AO287:AP287"/>
+    <mergeCell ref="AU287:AX287"/>
+    <mergeCell ref="B288:D288"/>
+    <mergeCell ref="G288:H288"/>
+    <mergeCell ref="I288:L288"/>
+    <mergeCell ref="M288:R288"/>
+    <mergeCell ref="S288:T288"/>
+    <mergeCell ref="V288:AB288"/>
+    <mergeCell ref="AC288:AG288"/>
+    <mergeCell ref="AJ288:AL288"/>
+    <mergeCell ref="AO288:AP288"/>
+    <mergeCell ref="AU288:AX288"/>
+    <mergeCell ref="B285:D285"/>
+    <mergeCell ref="G285:H285"/>
+    <mergeCell ref="I285:L285"/>
+    <mergeCell ref="M285:R285"/>
+    <mergeCell ref="S285:T285"/>
+    <mergeCell ref="V285:AB285"/>
+    <mergeCell ref="AC285:AG285"/>
+    <mergeCell ref="AJ285:AL285"/>
+    <mergeCell ref="AO285:AP285"/>
+    <mergeCell ref="AU285:AX285"/>
+    <mergeCell ref="B286:D286"/>
+    <mergeCell ref="G286:H286"/>
+    <mergeCell ref="I286:L286"/>
+    <mergeCell ref="M286:R286"/>
+    <mergeCell ref="S286:T286"/>
+    <mergeCell ref="V286:AB286"/>
+    <mergeCell ref="AC286:AG286"/>
+    <mergeCell ref="AJ286:AL286"/>
+    <mergeCell ref="AO286:AP286"/>
+    <mergeCell ref="AU286:AX286"/>
+    <mergeCell ref="B283:D283"/>
+    <mergeCell ref="G283:H283"/>
+    <mergeCell ref="I283:L283"/>
+    <mergeCell ref="M283:R283"/>
+    <mergeCell ref="S283:T283"/>
+    <mergeCell ref="V283:AB283"/>
+    <mergeCell ref="AC283:AG283"/>
+    <mergeCell ref="AJ283:AL283"/>
+    <mergeCell ref="AO283:AP283"/>
+    <mergeCell ref="AU283:AX283"/>
+    <mergeCell ref="B284:D284"/>
+    <mergeCell ref="G284:H284"/>
+    <mergeCell ref="I284:L284"/>
+    <mergeCell ref="M284:R284"/>
+    <mergeCell ref="S284:T284"/>
+    <mergeCell ref="V284:AB284"/>
+    <mergeCell ref="AC284:AG284"/>
+    <mergeCell ref="AJ284:AL284"/>
+    <mergeCell ref="AO284:AP284"/>
+    <mergeCell ref="AU284:AX284"/>
+    <mergeCell ref="B281:D281"/>
+    <mergeCell ref="G281:H281"/>
+    <mergeCell ref="I281:L281"/>
+    <mergeCell ref="M281:R281"/>
+    <mergeCell ref="S281:T281"/>
+    <mergeCell ref="V281:AB281"/>
+    <mergeCell ref="AC281:AG281"/>
+    <mergeCell ref="AJ281:AL281"/>
+    <mergeCell ref="AO281:AP281"/>
+    <mergeCell ref="AU281:AX281"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="G282:H282"/>
+    <mergeCell ref="I282:L282"/>
+    <mergeCell ref="M282:R282"/>
+    <mergeCell ref="S282:T282"/>
+    <mergeCell ref="V282:AB282"/>
+    <mergeCell ref="AC282:AG282"/>
+    <mergeCell ref="AJ282:AL282"/>
+    <mergeCell ref="AO282:AP282"/>
+    <mergeCell ref="AU282:AX282"/>
     <mergeCell ref="AM209:AM215"/>
     <mergeCell ref="AN209:AN215"/>
     <mergeCell ref="AO209:AP215"/>
@@ -59660,6 +63892,17 @@
     <mergeCell ref="AC215:AG215"/>
     <mergeCell ref="A3:AX3"/>
     <mergeCell ref="A278:AX278"/>
+    <mergeCell ref="B280:D280"/>
+    <mergeCell ref="G280:H280"/>
+    <mergeCell ref="I280:L280"/>
+    <mergeCell ref="M280:R280"/>
+    <mergeCell ref="S280:T280"/>
+    <mergeCell ref="V280:AB280"/>
+    <mergeCell ref="AC280:AG280"/>
+    <mergeCell ref="AJ280:AL280"/>
+    <mergeCell ref="AO280:AP280"/>
+    <mergeCell ref="AU280:AX280"/>
+    <mergeCell ref="A279:AX279"/>
     <mergeCell ref="B194:D194"/>
     <mergeCell ref="G194:H194"/>
     <mergeCell ref="I194:L194"/>
@@ -61111,1476 +65354,1918 @@
     <mergeCell ref="U10:U14"/>
     <mergeCell ref="V10:AB14"/>
   </mergeCells>
-  <conditionalFormatting sqref="AS279:AS1048576 AS1:AS2 AS15 AS20 AS25 AS4:AS5">
-    <cfRule type="cellIs" dxfId="483" priority="1167" operator="equal">
+  <conditionalFormatting sqref="AS294:AS1048576 AS1:AS2 AS15 AS20 AS25 AS4:AS5">
+    <cfRule type="cellIs" dxfId="633" priority="1317" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="1168" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="1318" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="1169" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="1319" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="1170" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="1320" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="1171" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="1321" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="1172" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="1322" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E259 E2 E277 E4 E279:E1048576">
-    <cfRule type="cellIs" dxfId="477" priority="1163" operator="equal">
+  <conditionalFormatting sqref="E259 E2 E277 E4 E294:E1048576">
+    <cfRule type="cellIs" dxfId="627" priority="1313" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="1164" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="1314" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="1165" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="1315" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="1166" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="1316" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E9 E15:E18">
-    <cfRule type="cellIs" dxfId="473" priority="1153" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="1303" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="1154" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="1304" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="1155" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="1305" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="1156" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="1306" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34 E36">
-    <cfRule type="cellIs" dxfId="469" priority="1099" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="1249" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="1100" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="1250" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="1101" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="1251" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="1102" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="1252" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E23">
-    <cfRule type="cellIs" dxfId="465" priority="1139" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="1289" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="1140" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="1290" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="1141" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="1291" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="1142" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="1292" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS30 AS32:AS36">
-    <cfRule type="cellIs" dxfId="461" priority="1147" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="1297" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="1148" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="1298" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="1149" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="1299" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="1150" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="1300" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="1151" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="1301" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="1152" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="1302" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="455" priority="1143" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="1293" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="1144" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="1294" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="1145" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="1295" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="1146" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="1296" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="451" priority="1029" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="1179" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="1030" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="1180" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="1031" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="1181" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="1032" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="1182" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E28">
-    <cfRule type="cellIs" dxfId="447" priority="1129" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="1279" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="1130" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="1280" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="1131" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="1281" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="1132" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="1282" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="443" priority="1119" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="1269" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="1120" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="1270" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="1121" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="1271" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="1122" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="1272" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="439" priority="1109" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="1259" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="1110" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="1260" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="1111" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="1261" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="1112" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="1262" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS37 AS39">
-    <cfRule type="cellIs" dxfId="435" priority="1087" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="1237" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="1088" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="1238" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="1089" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="1239" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="1090" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="1240" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="1091" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="1241" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="1092" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="1242" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="429" priority="1083" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="1233" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="1084" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="1234" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="1085" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="1235" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="1086" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="1236" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="425" priority="1067" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="1217" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="1068" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="1218" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="1069" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="1219" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="1070" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="1220" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="421" priority="1051" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="1201" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="1052" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="1202" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="1053" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="1203" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="1054" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="1204" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="417" priority="921" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="1071" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="922" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="1072" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="923" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="1073" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="924" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="1074" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="413" priority="1007" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="1157" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="1008" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="1158" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="1009" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="1159" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="1010" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="1160" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="409" priority="985" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="1135" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="986" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="1136" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="987" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="1137" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="988" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="1138" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="405" priority="969" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="1119" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="970" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="1120" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="971" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="1121" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="972" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="1122" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="401" priority="953" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="1103" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="954" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="1104" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="955" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="1105" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="956" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="1106" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="397" priority="937" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="1087" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="938" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="1088" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="939" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="1089" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="940" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="1090" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="393" priority="905" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="1055" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="906" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="1056" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="907" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="1057" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="908" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="1058" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E148">
-    <cfRule type="cellIs" dxfId="389" priority="841" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="991" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="842" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="992" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="843" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="993" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="844" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="994" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132">
-    <cfRule type="cellIs" dxfId="385" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="1023" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="874" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="1024" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="875" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="1025" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="876" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="1026" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="381" priority="857" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="1007" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="858" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="1008" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="859" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="1009" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="860" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="1010" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E202">
-    <cfRule type="cellIs" dxfId="373" priority="825" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="975" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="976" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="827" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="977" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="828" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="978" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E216">
-    <cfRule type="cellIs" dxfId="369" priority="809" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="959" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="810" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="960" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="811" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="961" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="962" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E225">
-    <cfRule type="cellIs" dxfId="365" priority="793" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="943" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="794" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="944" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="795" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="945" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="796" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="946" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E234">
-    <cfRule type="cellIs" dxfId="361" priority="783" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="933" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="784" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="934" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="785" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="935" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="786" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="936" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS234">
-    <cfRule type="cellIs" dxfId="357" priority="787" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="937" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="788" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="938" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="789" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="939" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="790" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="940" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="791" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="941" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="792" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="942" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E238">
-    <cfRule type="cellIs" dxfId="351" priority="767" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="917" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="768" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="918" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="769" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="919" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="770" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="920" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E239">
-    <cfRule type="cellIs" dxfId="347" priority="763" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="913" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="764" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="914" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="765" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="915" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="766" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="916" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E242">
-    <cfRule type="cellIs" dxfId="343" priority="759" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="909" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="760" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="910" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="761" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="911" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="762" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="912" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E261">
-    <cfRule type="cellIs" dxfId="339" priority="749" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="899" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="750" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="900" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="751" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="901" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="752" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="902" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E263">
-    <cfRule type="cellIs" dxfId="335" priority="739" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="889" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="740" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="890" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="741" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="891" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="742" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="892" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E267">
-    <cfRule type="cellIs" dxfId="331" priority="729" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="879" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="730" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="880" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="731" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="881" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="732" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="882" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E265">
-    <cfRule type="cellIs" dxfId="327" priority="719" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="869" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="720" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="870" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="721" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="871" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="722" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="872" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="323" priority="709" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="859" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="710" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="860" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="711" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="861" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="712" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="862" operator="equal">
+      <formula>"Normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E245">
+    <cfRule type="cellIs" dxfId="469" priority="785" operator="equal">
+      <formula>"Boundary"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="468" priority="786" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="467" priority="787" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="466" priority="788" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172">
-    <cfRule type="cellIs" dxfId="315" priority="683" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="833" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="684" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="834" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="835" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="686" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="836" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E181">
-    <cfRule type="cellIs" dxfId="311" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="817" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="668" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="818" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="669" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="819" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="670" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="820" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="307" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="801" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="802" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="653" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="803" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="654" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="804" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS132 AS140">
-    <cfRule type="cellIs" dxfId="303" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="599" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="600" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="601" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="602" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="603" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="604" operator="equal">
       <formula>"Plan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E245">
-    <cfRule type="cellIs" dxfId="297" priority="635" operator="equal">
-      <formula>"Boundary"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="636" operator="equal">
-      <formula>"Abnormal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="637" operator="equal">
-      <formula>"Abnormal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="638" operator="equal">
-      <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E246">
-    <cfRule type="cellIs" dxfId="293" priority="625" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="775" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="776" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="777" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="778" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E247">
-    <cfRule type="cellIs" dxfId="289" priority="615" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="765" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="766" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="767" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="618" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="768" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E249">
-    <cfRule type="cellIs" dxfId="285" priority="605" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="755" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="606" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="756" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="607" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="757" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="608" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="758" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E248">
-    <cfRule type="cellIs" dxfId="281" priority="595" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="745" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="746" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="597" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="747" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="598" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="748" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E252">
-    <cfRule type="cellIs" dxfId="277" priority="585" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="735" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="736" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="737" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="738" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E255">
-    <cfRule type="cellIs" dxfId="273" priority="575" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="725" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="726" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="727" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="728" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E257">
-    <cfRule type="cellIs" dxfId="269" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="715" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="716" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="717" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="718" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E269">
-    <cfRule type="cellIs" dxfId="265" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="705" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="706" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="707" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="708" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E271">
-    <cfRule type="cellIs" dxfId="261" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="695" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="696" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="547" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="697" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="698" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E273">
-    <cfRule type="cellIs" dxfId="253" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="675" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="676" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="677" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="678" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E275">
-    <cfRule type="cellIs" dxfId="249" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="665" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="666" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="667" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="668" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS43 AS47 AS51 AS55">
-    <cfRule type="cellIs" dxfId="245" priority="509" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="659" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="660" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="661" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="662" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="663" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="514" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="664" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS77 AS93 AS101 AS117">
-    <cfRule type="cellIs" dxfId="239" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="623" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="624" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="625" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="626" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="627" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="478" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="628" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS59 AS65">
-    <cfRule type="cellIs" dxfId="233" priority="485" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="635" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="636" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="637" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="638" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="489" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="639" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="640" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS148 AS156">
-    <cfRule type="cellIs" dxfId="227" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="587" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="588" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="589" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="590" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="591" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="592" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS216 AS225">
-    <cfRule type="cellIs" dxfId="221" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="551" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="552" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="553" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="554" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="555" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="556" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS195 AS202">
-    <cfRule type="cellIs" dxfId="215" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="563" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="564" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="565" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="566" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="567" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="568" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS255 AS257 AS259 AS261 AS263 AS265 AS267 AS269 AS271 AS273 AS275">
-    <cfRule type="cellIs" dxfId="209" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="485" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="486" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="487" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="488" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="489" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="490" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS239 AS242">
-    <cfRule type="cellIs" dxfId="203" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="509" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="510" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="511" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="512" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="513" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="514" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS277">
-    <cfRule type="cellIs" dxfId="197" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="353" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="354" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="355" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="356" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="357" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="358" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS245:AS248">
-    <cfRule type="cellIs" dxfId="191" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="371" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="372" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="373" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="374" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="375" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="376" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS172 AS181">
-    <cfRule type="cellIs" dxfId="185" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="395" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="396" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="397" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="398" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="399" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="400" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS238">
-    <cfRule type="cellIs" dxfId="179" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="389" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="390" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="391" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="392" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="393" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="394" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS249">
-    <cfRule type="cellIs" dxfId="173" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="365" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="366" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="367" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="368" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="369" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="370" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS252">
-    <cfRule type="cellIs" dxfId="167" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="359" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="360" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="361" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="362" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="363" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="364" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS10">
-    <cfRule type="cellIs" dxfId="161" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="297" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="298" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="299" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="300" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="301" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="302" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E14">
-    <cfRule type="cellIs" dxfId="155" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="293" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="294" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="295" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="296" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS31">
-    <cfRule type="cellIs" dxfId="151" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="287" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="288" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="289" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="290" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="291" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="292" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="145" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="283" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="284" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="285" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="286" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="141" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="263" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="264" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="265" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="266" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS41">
-    <cfRule type="cellIs" dxfId="137" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="267" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="268" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="269" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="270" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="271" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="272" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS71">
-    <cfRule type="cellIs" dxfId="131" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="243" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="244" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="245" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="246" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="247" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="248" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="125" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="239" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="240" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="241" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="242" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="121" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="235" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="236" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="237" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="238" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS85">
-    <cfRule type="cellIs" dxfId="117" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="229" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="230" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="231" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="232" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="233" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="234" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="111" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="211" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="212" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="213" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="214" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS109">
-    <cfRule type="cellIs" dxfId="107" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="219" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="220" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="221" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="222" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="223" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="224" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="101" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="215" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="216" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="217" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="218" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="97" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="187" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="188" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="189" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="190" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS125">
-    <cfRule type="cellIs" dxfId="93" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="205" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="206" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="207" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="208" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="209" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="210" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="87" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="225" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="226" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="227" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="228" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS164">
-    <cfRule type="cellIs" dxfId="83" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="195" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="196" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="197" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="198" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="199" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="200" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="77" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="201" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="202" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="203" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="204" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="73" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="177" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="178" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="179" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="180" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS190">
-    <cfRule type="cellIs" dxfId="69" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="181" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="182" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="183" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="184" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="185" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="186" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="63" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="191" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="192" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="193" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="194" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E209">
-    <cfRule type="cellIs" dxfId="49" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="157" operator="equal">
       <formula>"Boundary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="158" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="159" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="160" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS194">
-    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="171" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="172" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="173" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="174" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="175" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="176" operator="equal">
       <formula>"Plan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E280">
+    <cfRule type="cellIs" dxfId="189" priority="147" operator="equal">
+      <formula>"Boundary"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="148" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="149" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="150" operator="equal">
+      <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS209">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="151" operator="equal">
       <formula>"Other"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="152" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="153" operator="equal">
       <formula>"Not Test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="154" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="155" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="156" operator="equal">
+      <formula>"Plan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS280">
+    <cfRule type="cellIs" dxfId="175" priority="141" operator="equal">
+      <formula>"Other"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="142" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="143" operator="equal">
+      <formula>"Not Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="144" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="145" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="146" operator="equal">
+      <formula>"Plan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E281">
+    <cfRule type="cellIs" dxfId="139" priority="137" operator="equal">
+      <formula>"Boundary"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="138" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="139" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="140" operator="equal">
+      <formula>"Normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS281">
+    <cfRule type="cellIs" dxfId="135" priority="131" operator="equal">
+      <formula>"Other"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="132" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="133" operator="equal">
+      <formula>"Not Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="134" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="135" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="136" operator="equal">
+      <formula>"Plan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E282">
+    <cfRule type="cellIs" dxfId="129" priority="127" operator="equal">
+      <formula>"Boundary"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="128" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="129" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="130" operator="equal">
+      <formula>"Normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS282">
+    <cfRule type="cellIs" dxfId="125" priority="121" operator="equal">
+      <formula>"Other"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="122" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="123" operator="equal">
+      <formula>"Not Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="124" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="125" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="126" operator="equal">
+      <formula>"Plan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E283">
+    <cfRule type="cellIs" dxfId="119" priority="117" operator="equal">
+      <formula>"Boundary"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="118" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="119" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="120" operator="equal">
+      <formula>"Normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS283">
+    <cfRule type="cellIs" dxfId="115" priority="111" operator="equal">
+      <formula>"Other"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="112" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="113" operator="equal">
+      <formula>"Not Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="114" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="115" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="116" operator="equal">
+      <formula>"Plan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E284">
+    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
+      <formula>"Boundary"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="108" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="109" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="110" operator="equal">
+      <formula>"Normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS284">
+    <cfRule type="cellIs" dxfId="105" priority="101" operator="equal">
+      <formula>"Other"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="102" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="103" operator="equal">
+      <formula>"Not Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="104" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="105" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="106" operator="equal">
+      <formula>"Plan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E285">
+    <cfRule type="cellIs" dxfId="99" priority="97" operator="equal">
+      <formula>"Boundary"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="100" operator="equal">
+      <formula>"Normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS285">
+    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
+      <formula>"Other"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="92" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
+      <formula>"Not Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="95" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="96" operator="equal">
+      <formula>"Plan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E286">
+    <cfRule type="cellIs" dxfId="89" priority="87" operator="equal">
+      <formula>"Boundary"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="88" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="89" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="90" operator="equal">
+      <formula>"Normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS286">
+    <cfRule type="cellIs" dxfId="85" priority="81" operator="equal">
+      <formula>"Other"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="82" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="83" operator="equal">
+      <formula>"Not Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="84" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="85" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="86" operator="equal">
+      <formula>"Plan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E287">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+      <formula>"Boundary"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+      <formula>"Normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS287">
+    <cfRule type="cellIs" dxfId="75" priority="71" operator="equal">
+      <formula>"Other"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="72" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
+      <formula>"Not Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="75" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="76" operator="equal">
+      <formula>"Plan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E288">
+    <cfRule type="cellIs" dxfId="69" priority="67" operator="equal">
+      <formula>"Boundary"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="69" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="70" operator="equal">
+      <formula>"Normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS288">
+    <cfRule type="cellIs" dxfId="65" priority="61" operator="equal">
+      <formula>"Other"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
+      <formula>"Not Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="65" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="66" operator="equal">
+      <formula>"Plan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E289">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+      <formula>"Boundary"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+      <formula>"Normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS289">
+    <cfRule type="cellIs" dxfId="55" priority="51" operator="equal">
+      <formula>"Other"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="52" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+      <formula>"Not Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="56" operator="equal">
+      <formula>"Plan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E290">
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+      <formula>"Boundary"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+      <formula>"Normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS290">
+    <cfRule type="cellIs" dxfId="45" priority="41" operator="equal">
+      <formula>"Other"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+      <formula>"Not Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
+      <formula>"Plan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E291">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+      <formula>"Boundary"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+      <formula>"Normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS291">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
+      <formula>"Other"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+      <formula>"Not Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
+      <formula>"Plan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E293">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"Boundary"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"Abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>"Normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS293">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+      <formula>"Other"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"Not Test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>"Plan"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI15:AI18 AI55:AI57 AI4 AI273 AI271 AI269 AI277 AI257 AI259 AI255 AI252 AI245:AI249 AI181 AI172 AI156 AI275 AI265 AI267 AI263 AI261 AI238:AI239 AI234 AI225 AI202 AI148 AI140 AI132 AI117 AI101 AI93 AI77 AI65 AI59 AI51:AI53 AI47:AI49 AI30:AI37 AI20:AI23 AI25:AI28 AI242 AI39:AI45 AI71 AI85 AI109 AI125 AI164 AI190 AI194:AI195 AI216 AI209">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI15:AI18 AI55:AI57 AI4 AI273 AI271 AI269 AI277 AI257 AI259 AI255 AI252 AI245:AI249 AI181 AI172 AI156 AI275 AI265 AI267 AI263 AI261 AI238:AI239 AI234 AI225 AI202 AI148 AI140 AI132 AI117 AI101 AI93 AI77 AI65 AI59 AI51:AI53 AI47:AI49 AI30:AI37 AI20:AI23 AI25:AI28 AI242 AI39:AI45 AI71 AI85 AI109 AI125 AI164 AI190 AI194:AI195 AI216 AI209 AI280:AI291 AI293">
       <formula1>$T$1:$T$2</formula1>
     </dataValidation>
   </dataValidations>
@@ -62593,19 +67278,19 @@
           <x14:formula1>
             <xm:f>[3]data!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>U169:U172 E275 G5:H14 G15:G18 G242 G25:G28 G20:G23 G39 G43 G47 G51 G55 G59 G65 G77 G93 G101 G117 G132 G140 G148 G202 G225 G234 G238:G239 G265 G261 G263 G267 G156 G172 G181 G245:G249 G252 G255 G259 G257 G277 G269 G271 G273 G275 AN277 AN273 AN39 E181 E245:E249 E252 AN269 E273 AN252 AN275 AN271 E255 AN242 AN263 AN261 E259 AN267 E257 E277 AN238:AN239 AN245:AN249 AN257 AN265 AN259 AN255 E269 E172 E271 U15 U20 U25 U64:U65 U98:U101 U221:U225 U153:U156 E156 U177:U181 U186:U195 E59 E242 E25:E28 E20:E23 E39 E43 E47 E51 E55 E65 E77 E93 E101 E109 E132 E140 E148 E202 E225 E234 E238:E239 E265 E261 E263 E267 G4 U4:U5 E4:E18 U10 AI5:AI14 AN4:AN37 E30:E37 G30:G37 E41 G41 AN41 U30:U59 E71 U70:U71 U76:U77 G71 E85 U82:U85 U90:U93 G85 U106:U109 U114:U117 G109 E117 U137:U140 U145:U148 U122:U125 G125 E125 U130:U132 U161:U164 E164 G164 G190 E190 G194:G195 E194:E195 U200:U202 G216 E216 AN43:AN234 U206:U209 U213:U216 G209 E209 U230:U277</xm:sqref>
+          <xm:sqref>U169:U172 E275 G5:H14 G15:G18 G242 G25:G28 G20:G23 G39 G43 G47 G51 G55 G59 G65 G77 G93 G101 G117 G132 G140 G148 G202 G225 G234 G238:G239 G265 G261 G263 G267 G156 G172 G181 G245:G249 G252 G255 G259 G257 G277 G269 G271 G273 G275 AN277 AN273 AN39 E181 E245:E249 E252 AN269 E273 AN252 AN275 AN271 E255 AN242 AN263 AN261 E259 AN267 E257 E277 AN238:AN239 AN245:AN249 AN257 AN265 AN259 AN255 E269 E172 E271 U15 U20 U25 U64:U65 U98:U101 U221:U225 U153:U156 E156 U177:U181 U186:U195 E59 E242 E25:E28 E20:E23 E39 E43 E47 E51 E55 E65 E77 E93 E101 E109 E132 E140 E148 E202 E225 E234 E238:E239 E265 E261 E263 E267 G4 U4:U5 E4:E18 U10 AI5:AI14 AN4:AN37 E30:E37 G30:G37 E41 G41 AN41 U30:U59 E71 U70:U71 U76:U77 G71 E85 U82:U85 U90:U93 G85 U106:U109 U114:U117 G109 E117 U137:U140 U145:U148 U122:U125 G125 E125 U130:U132 U161:U164 E164 G164 G190 E190 G194:G195 E194:E195 U200:U202 G216 E216 AN43:AN234 U206:U209 U213:U216 G209 E209 U230:U277 U280:U291 AN280:AN291 E280:E291 G280:G291 U293 AN293 E293 G293</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>data!$U$3:$U$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AO4:AO35 AP4:AP34 AO36:AP277</xm:sqref>
+          <xm:sqref>AO4:AO35 AP4:AP34 AO36:AP277 AO280:AP291 AO293:AP293</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>data!$Y$3:$Y$6</xm:f>
           </x14:formula1>
-          <xm:sqref>AR30:AR76 AR148:AR233 AR238:AR277</xm:sqref>
+          <xm:sqref>AR30:AR76 AR148:AR233 AR238:AR277 AR280:AR291 AR293</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -62629,13 +67314,13 @@
           <x14:formula1>
             <xm:f>data!$I$3:$I$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AM4:AM277</xm:sqref>
+          <xm:sqref>AM4:AM277 AM280:AM291 AM293</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>data!$A$3:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>AS4:AS277</xm:sqref>
+          <xm:sqref>AS4:AS277 AS280:AS291 AS293</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -62647,8 +67332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:F42"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -62998,7 +67683,7 @@
       </c>
       <c r="F15" s="397">
         <f>SUBTOTAL(9,SystemTest!AQ:AQ)</f>
-        <v>1790</v>
+        <v>2180</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>308</v>
@@ -63078,7 +67763,7 @@
       </c>
       <c r="B18" s="70">
         <f>COUNTIF(SystemTest!AS:AS,"Plan")</f>
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C18" s="364"/>
       <c r="D18" s="364"/>
@@ -63147,7 +67832,7 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B21" s="94">
         <f>SUM(B15:B20)</f>
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I21" s="94">
         <f>SUM(I15:I20)</f>
@@ -63490,7 +68175,7 @@
       </c>
       <c r="F37" s="368">
         <f>SUM(F4:F32)</f>
-        <v>2975</v>
+        <v>3365</v>
       </c>
       <c r="H37" s="39" t="s">
         <v>308</v>
@@ -63570,7 +68255,7 @@
       </c>
       <c r="B40" s="70">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C40" s="364"/>
       <c r="D40" s="364"/>
@@ -63639,7 +68324,7 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B43" s="94">
         <f>SUM(B37:B42)</f>
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="I43" s="94">
         <f>SUM(I37:I42)</f>
